--- a/var_info/indv_panel_var_info/CMC_VariableInfo.xlsx
+++ b/var_info/indv_panel_var_info/CMC_VariableInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/TSRP/var_info/indv_panel_var_info/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/CDS-Data/08_Projects/temprisk/var_info/indv_panel_var_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243DC47F-2AEA-4C44-BEBF-A79AA1FEDB79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B9462FB-320C-DE4C-A8C5-631FAE0FFDA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17060" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51600" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Measures" sheetId="1" r:id="rId1"/>
@@ -24,14 +24,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Dates!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Dems!$A$1:$F$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">ID!$A$1:$F$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$O$229</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Measures!$A$1:$P$229</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1971" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="341">
   <si>
     <t>pro</t>
   </si>
@@ -1051,6 +1051,9 @@
   </si>
   <si>
     <t>DRUG_YR_OEA</t>
+  </si>
+  <si>
+    <t>item_num</t>
   </si>
 </sst>
 </file>
@@ -1540,14 +1543,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1903,11 +1904,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O229"/>
+  <dimension ref="A1:P229"/>
   <sheetViews>
-    <sheetView zoomScale="114" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A216" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="114" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O4" sqref="O3:O229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1916,54 +1917,57 @@
     <col min="4" max="5" width="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" t="s">
+        <v>340</v>
+      </c>
+      <c r="P1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1973,7 +1977,7 @@
       <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>149</v>
       </c>
       <c r="E2" t="s">
@@ -1988,7 +1992,7 @@
       <c r="H2" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>2</v>
       </c>
       <c r="J2">
@@ -1997,8 +2001,11 @@
       <c r="N2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="O2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -2008,7 +2015,7 @@
       <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>150</v>
       </c>
       <c r="E3" t="s">
@@ -2023,7 +2030,7 @@
       <c r="H3" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>2</v>
       </c>
       <c r="J3">
@@ -2032,8 +2039,11 @@
       <c r="N3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="O3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2043,7 +2053,7 @@
       <c r="C4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>151</v>
       </c>
       <c r="E4" t="s">
@@ -2058,7 +2068,7 @@
       <c r="H4" t="s">
         <v>41</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>2</v>
       </c>
       <c r="J4">
@@ -2067,8 +2077,11 @@
       <c r="N4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="O4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -2078,7 +2091,7 @@
       <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>152</v>
       </c>
       <c r="E5" t="s">
@@ -2093,7 +2106,7 @@
       <c r="H5" t="s">
         <v>41</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>2</v>
       </c>
       <c r="J5">
@@ -2102,8 +2115,11 @@
       <c r="N5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="O5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2113,7 +2129,7 @@
       <c r="C6" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E6" t="s">
@@ -2128,7 +2144,7 @@
       <c r="H6" t="s">
         <v>41</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>2</v>
       </c>
       <c r="J6">
@@ -2140,8 +2156,11 @@
       <c r="N6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="O6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2151,7 +2170,7 @@
       <c r="C7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>146</v>
       </c>
       <c r="E7" t="s">
@@ -2166,7 +2185,7 @@
       <c r="H7" t="s">
         <v>41</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" t="s">
         <v>2</v>
       </c>
       <c r="J7">
@@ -2178,8 +2197,11 @@
       <c r="N7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="O7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2189,7 +2211,7 @@
       <c r="C8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>147</v>
       </c>
       <c r="E8" t="s">
@@ -2204,7 +2226,7 @@
       <c r="H8" t="s">
         <v>41</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" t="s">
         <v>2</v>
       </c>
       <c r="J8">
@@ -2216,8 +2238,11 @@
       <c r="N8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="O8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2227,7 +2252,7 @@
       <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>148</v>
       </c>
       <c r="E9" t="s">
@@ -2242,7 +2267,7 @@
       <c r="H9" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" t="s">
         <v>2</v>
       </c>
       <c r="J9">
@@ -2254,8 +2279,11 @@
       <c r="N9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="O9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -2265,7 +2293,7 @@
       <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>141</v>
       </c>
       <c r="E10" t="s">
@@ -2280,14 +2308,17 @@
       <c r="H10" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" t="s">
         <v>56</v>
       </c>
       <c r="K10">
         <v>365</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="O10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -2297,7 +2328,7 @@
       <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>142</v>
       </c>
       <c r="E11" t="s">
@@ -2312,14 +2343,17 @@
       <c r="H11" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" t="s">
         <v>56</v>
       </c>
       <c r="K11">
         <v>365</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="O11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -2329,7 +2363,7 @@
       <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>143</v>
       </c>
       <c r="E12" t="s">
@@ -2344,14 +2378,17 @@
       <c r="H12" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" t="s">
         <v>56</v>
       </c>
       <c r="K12">
         <v>365</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="O12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>19</v>
       </c>
@@ -2361,7 +2398,7 @@
       <c r="C13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>144</v>
       </c>
       <c r="E13" t="s">
@@ -2376,14 +2413,17 @@
       <c r="H13" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" t="s">
         <v>56</v>
       </c>
       <c r="K13">
         <v>365</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="O13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -2393,7 +2433,7 @@
       <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>74</v>
       </c>
       <c r="E14" t="s">
@@ -2408,7 +2448,7 @@
       <c r="H14" t="s">
         <v>41</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" t="s">
         <v>2</v>
       </c>
       <c r="J14">
@@ -2417,8 +2457,11 @@
       <c r="N14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="O14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -2428,7 +2471,7 @@
       <c r="C15" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E15" t="s">
@@ -2443,7 +2486,7 @@
       <c r="H15" t="s">
         <v>41</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" t="s">
         <v>2</v>
       </c>
       <c r="J15">
@@ -2452,8 +2495,11 @@
       <c r="N15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="O15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -2463,7 +2509,7 @@
       <c r="C16" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>76</v>
       </c>
       <c r="E16" t="s">
@@ -2478,18 +2524,20 @@
       <c r="H16" t="s">
         <v>41</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" t="s">
         <v>2</v>
       </c>
       <c r="J16">
         <v>2</v>
       </c>
-      <c r="M16" s="1"/>
       <c r="N16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2499,7 +2547,7 @@
       <c r="C17" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E17" t="s">
@@ -2514,18 +2562,20 @@
       <c r="H17" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" t="s">
         <v>2</v>
       </c>
       <c r="J17">
         <v>2</v>
       </c>
-      <c r="M17" s="1"/>
       <c r="N17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -2535,7 +2585,7 @@
       <c r="C18" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>66</v>
       </c>
       <c r="E18" t="s">
@@ -2550,14 +2600,17 @@
       <c r="H18" t="s">
         <v>41</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" t="s">
         <v>56</v>
       </c>
       <c r="K18">
         <v>365</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -2567,7 +2620,7 @@
       <c r="C19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E19" t="s">
@@ -2582,14 +2635,17 @@
       <c r="H19" t="s">
         <v>41</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" t="s">
         <v>56</v>
       </c>
       <c r="K19">
         <v>365</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2599,7 +2655,7 @@
       <c r="C20" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E20" t="s">
@@ -2614,14 +2670,17 @@
       <c r="H20" t="s">
         <v>41</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" t="s">
         <v>56</v>
       </c>
       <c r="K20">
         <v>365</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2631,7 +2690,7 @@
       <c r="C21" t="s">
         <v>25</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>69</v>
       </c>
       <c r="E21" t="s">
@@ -2646,14 +2705,17 @@
       <c r="H21" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" t="s">
         <v>56</v>
       </c>
       <c r="K21">
         <v>365</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -2663,7 +2725,7 @@
       <c r="C22" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>70</v>
       </c>
       <c r="E22" t="s">
@@ -2678,7 +2740,7 @@
       <c r="H22" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" t="s">
         <v>2</v>
       </c>
       <c r="J22">
@@ -2690,8 +2752,11 @@
       <c r="N22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -2701,7 +2766,7 @@
       <c r="C23" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="1" t="s">
         <v>71</v>
       </c>
       <c r="E23" t="s">
@@ -2716,7 +2781,7 @@
       <c r="H23" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" t="s">
         <v>2</v>
       </c>
       <c r="J23">
@@ -2728,8 +2793,11 @@
       <c r="N23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -2739,7 +2807,7 @@
       <c r="C24" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E24" t="s">
@@ -2754,7 +2822,7 @@
       <c r="H24" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" t="s">
         <v>2</v>
       </c>
       <c r="J24">
@@ -2766,8 +2834,11 @@
       <c r="N24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>19</v>
       </c>
@@ -2777,7 +2848,7 @@
       <c r="C25" t="s">
         <v>25</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>73</v>
       </c>
       <c r="E25" t="s">
@@ -2792,7 +2863,7 @@
       <c r="H25" t="s">
         <v>41</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" t="s">
         <v>2</v>
       </c>
       <c r="J25">
@@ -2804,8 +2875,11 @@
       <c r="N25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>19</v>
       </c>
@@ -2815,7 +2889,7 @@
       <c r="C26" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>269</v>
       </c>
       <c r="E26" t="s">
@@ -2830,7 +2904,7 @@
       <c r="H26" t="s">
         <v>309</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" t="s">
         <v>2</v>
       </c>
       <c r="J26">
@@ -2839,8 +2913,11 @@
       <c r="N26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>19</v>
       </c>
@@ -2850,7 +2927,7 @@
       <c r="C27" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>270</v>
       </c>
       <c r="E27" t="s">
@@ -2865,7 +2942,7 @@
       <c r="H27" t="s">
         <v>309</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" t="s">
         <v>2</v>
       </c>
       <c r="J27">
@@ -2874,8 +2951,11 @@
       <c r="N27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>19</v>
       </c>
@@ -2885,7 +2965,7 @@
       <c r="C28" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="1" t="s">
         <v>271</v>
       </c>
       <c r="E28" t="s">
@@ -2900,7 +2980,7 @@
       <c r="H28" t="s">
         <v>309</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" t="s">
         <v>2</v>
       </c>
       <c r="J28">
@@ -2909,8 +2989,11 @@
       <c r="N28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -2920,7 +3003,7 @@
       <c r="C29" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="1" t="s">
         <v>272</v>
       </c>
       <c r="E29" t="s">
@@ -2935,7 +3018,7 @@
       <c r="H29" t="s">
         <v>309</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" t="s">
         <v>2</v>
       </c>
       <c r="J29">
@@ -2944,8 +3027,11 @@
       <c r="N29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>19</v>
       </c>
@@ -2955,7 +3041,7 @@
       <c r="C30" t="s">
         <v>25</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E30" t="s">
@@ -2970,7 +3056,7 @@
       <c r="H30" t="s">
         <v>41</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" t="s">
         <v>2</v>
       </c>
       <c r="J30">
@@ -2979,8 +3065,11 @@
       <c r="N30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -2990,7 +3079,7 @@
       <c r="C31" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="1" t="s">
         <v>282</v>
       </c>
       <c r="E31" t="s">
@@ -3005,7 +3094,7 @@
       <c r="H31" t="s">
         <v>41</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" t="s">
         <v>2</v>
       </c>
       <c r="J31">
@@ -3014,8 +3103,11 @@
       <c r="N31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>19</v>
       </c>
@@ -3025,7 +3117,7 @@
       <c r="C32" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="1" t="s">
         <v>283</v>
       </c>
       <c r="E32" t="s">
@@ -3040,7 +3132,7 @@
       <c r="H32" t="s">
         <v>41</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" t="s">
         <v>2</v>
       </c>
       <c r="J32">
@@ -3049,8 +3141,11 @@
       <c r="N32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -3060,7 +3155,7 @@
       <c r="C33" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="1" t="s">
         <v>284</v>
       </c>
       <c r="E33" t="s">
@@ -3075,7 +3170,7 @@
       <c r="H33" t="s">
         <v>41</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" t="s">
         <v>2</v>
       </c>
       <c r="J33">
@@ -3084,8 +3179,11 @@
       <c r="N33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>19</v>
       </c>
@@ -3095,7 +3193,7 @@
       <c r="C34" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="1" t="s">
         <v>277</v>
       </c>
       <c r="E34" t="s">
@@ -3110,7 +3208,7 @@
       <c r="H34" t="s">
         <v>41</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" t="s">
         <v>2</v>
       </c>
       <c r="J34">
@@ -3122,8 +3220,11 @@
       <c r="N34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -3133,7 +3234,7 @@
       <c r="C35" t="s">
         <v>25</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="1" t="s">
         <v>278</v>
       </c>
       <c r="E35" t="s">
@@ -3148,7 +3249,7 @@
       <c r="H35" t="s">
         <v>41</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" t="s">
         <v>2</v>
       </c>
       <c r="J35">
@@ -3160,8 +3261,11 @@
       <c r="N35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -3171,7 +3275,7 @@
       <c r="C36" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="1" t="s">
         <v>279</v>
       </c>
       <c r="E36" t="s">
@@ -3186,7 +3290,7 @@
       <c r="H36" t="s">
         <v>41</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" t="s">
         <v>2</v>
       </c>
       <c r="J36">
@@ -3198,8 +3302,11 @@
       <c r="N36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -3209,7 +3316,7 @@
       <c r="C37" t="s">
         <v>25</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="1" t="s">
         <v>280</v>
       </c>
       <c r="E37" t="s">
@@ -3224,7 +3331,7 @@
       <c r="H37" t="s">
         <v>41</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" t="s">
         <v>2</v>
       </c>
       <c r="J37">
@@ -3236,8 +3343,11 @@
       <c r="N37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -3247,7 +3357,7 @@
       <c r="C38" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="1" t="s">
         <v>273</v>
       </c>
       <c r="E38" t="s">
@@ -3262,14 +3372,17 @@
       <c r="H38" t="s">
         <v>41</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" t="s">
         <v>56</v>
       </c>
       <c r="K38">
         <v>365</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -3279,7 +3392,7 @@
       <c r="C39" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="1" t="s">
         <v>274</v>
       </c>
       <c r="E39" t="s">
@@ -3294,14 +3407,17 @@
       <c r="H39" t="s">
         <v>41</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" t="s">
         <v>56</v>
       </c>
       <c r="K39">
         <v>365</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -3311,7 +3427,7 @@
       <c r="C40" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="1" t="s">
         <v>275</v>
       </c>
       <c r="E40" t="s">
@@ -3326,14 +3442,17 @@
       <c r="H40" t="s">
         <v>41</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" t="s">
         <v>56</v>
       </c>
       <c r="K40">
         <v>365</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>19</v>
       </c>
@@ -3343,7 +3462,7 @@
       <c r="C41" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="1" t="s">
         <v>276</v>
       </c>
       <c r="E41" t="s">
@@ -3358,14 +3477,17 @@
       <c r="H41" t="s">
         <v>41</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="I41" t="s">
         <v>56</v>
       </c>
       <c r="K41">
         <v>365</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>19</v>
       </c>
@@ -3375,7 +3497,7 @@
       <c r="C42" t="s">
         <v>25</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="1" t="s">
         <v>265</v>
       </c>
       <c r="E42" t="s">
@@ -3390,7 +3512,7 @@
       <c r="H42" t="s">
         <v>309</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" t="s">
         <v>2</v>
       </c>
       <c r="J42">
@@ -3402,8 +3524,11 @@
       <c r="N42">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>19</v>
       </c>
@@ -3413,7 +3538,7 @@
       <c r="C43" t="s">
         <v>25</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="1" t="s">
         <v>266</v>
       </c>
       <c r="E43" t="s">
@@ -3428,7 +3553,7 @@
       <c r="H43" t="s">
         <v>309</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" t="s">
         <v>2</v>
       </c>
       <c r="J43">
@@ -3440,8 +3565,11 @@
       <c r="N43">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>19</v>
       </c>
@@ -3451,7 +3579,7 @@
       <c r="C44" t="s">
         <v>25</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="1" t="s">
         <v>267</v>
       </c>
       <c r="E44" t="s">
@@ -3466,7 +3594,7 @@
       <c r="H44" t="s">
         <v>309</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" t="s">
         <v>2</v>
       </c>
       <c r="J44">
@@ -3478,8 +3606,11 @@
       <c r="N44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>19</v>
       </c>
@@ -3489,7 +3620,7 @@
       <c r="C45" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="1" t="s">
         <v>268</v>
       </c>
       <c r="E45" t="s">
@@ -3504,7 +3635,7 @@
       <c r="H45" t="s">
         <v>309</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I45" t="s">
         <v>2</v>
       </c>
       <c r="J45">
@@ -3516,8 +3647,11 @@
       <c r="N45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>19</v>
       </c>
@@ -3527,7 +3661,7 @@
       <c r="C46" t="s">
         <v>25</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="1" t="s">
         <v>261</v>
       </c>
       <c r="E46" t="s">
@@ -3542,14 +3676,17 @@
       <c r="H46" t="s">
         <v>309</v>
       </c>
-      <c r="I46" s="1" t="s">
+      <c r="I46" t="s">
         <v>56</v>
       </c>
       <c r="K46">
         <v>365</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>19</v>
       </c>
@@ -3559,7 +3696,7 @@
       <c r="C47" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D47" s="1" t="s">
         <v>262</v>
       </c>
       <c r="E47" t="s">
@@ -3574,14 +3711,17 @@
       <c r="H47" t="s">
         <v>309</v>
       </c>
-      <c r="I47" s="1" t="s">
+      <c r="I47" t="s">
         <v>56</v>
       </c>
       <c r="K47">
         <v>365</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>19</v>
       </c>
@@ -3591,7 +3731,7 @@
       <c r="C48" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="1" t="s">
         <v>263</v>
       </c>
       <c r="E48" t="s">
@@ -3606,14 +3746,17 @@
       <c r="H48" t="s">
         <v>309</v>
       </c>
-      <c r="I48" s="1" t="s">
+      <c r="I48" t="s">
         <v>56</v>
       </c>
       <c r="K48">
         <v>365</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>19</v>
       </c>
@@ -3623,7 +3766,7 @@
       <c r="C49" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="1" t="s">
         <v>264</v>
       </c>
       <c r="E49" t="s">
@@ -3638,14 +3781,17 @@
       <c r="H49" t="s">
         <v>309</v>
       </c>
-      <c r="I49" s="1" t="s">
+      <c r="I49" t="s">
         <v>56</v>
       </c>
       <c r="K49">
         <v>365</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>19</v>
       </c>
@@ -3670,14 +3816,17 @@
       <c r="H50" t="s">
         <v>41</v>
       </c>
-      <c r="I50" s="1" t="s">
+      <c r="I50" t="s">
         <v>2</v>
       </c>
       <c r="J50">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>19</v>
       </c>
@@ -3702,14 +3851,17 @@
       <c r="H51" t="s">
         <v>41</v>
       </c>
-      <c r="I51" s="1" t="s">
+      <c r="I51" t="s">
         <v>2</v>
       </c>
       <c r="J51">
         <v>4</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>19</v>
       </c>
@@ -3734,14 +3886,17 @@
       <c r="H52" t="s">
         <v>41</v>
       </c>
-      <c r="I52" s="1" t="s">
+      <c r="I52" t="s">
         <v>2</v>
       </c>
       <c r="J52">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>19</v>
       </c>
@@ -3766,14 +3921,17 @@
       <c r="H53" t="s">
         <v>41</v>
       </c>
-      <c r="I53" s="1" t="s">
+      <c r="I53" t="s">
         <v>2</v>
       </c>
       <c r="J53">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -3783,7 +3941,7 @@
       <c r="C54" t="s">
         <v>25</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="1" t="s">
         <v>239</v>
       </c>
       <c r="E54" t="s">
@@ -3798,7 +3956,7 @@
       <c r="H54" t="s">
         <v>41</v>
       </c>
-      <c r="I54" s="1" t="s">
+      <c r="I54" t="s">
         <v>2</v>
       </c>
       <c r="J54">
@@ -3807,8 +3965,11 @@
       <c r="N54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -3818,7 +3979,7 @@
       <c r="C55" t="s">
         <v>25</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="1" t="s">
         <v>240</v>
       </c>
       <c r="E55" t="s">
@@ -3833,7 +3994,7 @@
       <c r="H55" t="s">
         <v>41</v>
       </c>
-      <c r="I55" s="1" t="s">
+      <c r="I55" t="s">
         <v>2</v>
       </c>
       <c r="J55">
@@ -3842,8 +4003,11 @@
       <c r="N55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -3853,7 +4017,7 @@
       <c r="C56" t="s">
         <v>25</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="1" t="s">
         <v>241</v>
       </c>
       <c r="E56" t="s">
@@ -3868,7 +4032,7 @@
       <c r="H56" t="s">
         <v>41</v>
       </c>
-      <c r="I56" s="1" t="s">
+      <c r="I56" t="s">
         <v>2</v>
       </c>
       <c r="J56">
@@ -3877,8 +4041,11 @@
       <c r="N56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -3888,7 +4055,7 @@
       <c r="C57" t="s">
         <v>25</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="1" t="s">
         <v>242</v>
       </c>
       <c r="E57" t="s">
@@ -3903,7 +4070,7 @@
       <c r="H57" t="s">
         <v>41</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="I57" t="s">
         <v>2</v>
       </c>
       <c r="J57">
@@ -3912,8 +4079,11 @@
       <c r="N57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -3923,7 +4093,7 @@
       <c r="C58" t="s">
         <v>25</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="1" t="s">
         <v>235</v>
       </c>
       <c r="E58" t="s">
@@ -3938,7 +4108,7 @@
       <c r="H58" t="s">
         <v>41</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="I58" t="s">
         <v>2</v>
       </c>
       <c r="J58">
@@ -3950,8 +4120,11 @@
       <c r="N58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>19</v>
       </c>
@@ -3961,7 +4134,7 @@
       <c r="C59" t="s">
         <v>25</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="1" t="s">
         <v>236</v>
       </c>
       <c r="E59" t="s">
@@ -3976,7 +4149,7 @@
       <c r="H59" t="s">
         <v>41</v>
       </c>
-      <c r="I59" s="1" t="s">
+      <c r="I59" t="s">
         <v>2</v>
       </c>
       <c r="J59">
@@ -3988,8 +4161,11 @@
       <c r="N59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>19</v>
       </c>
@@ -3999,7 +4175,7 @@
       <c r="C60" t="s">
         <v>25</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="1" t="s">
         <v>237</v>
       </c>
       <c r="E60" t="s">
@@ -4014,7 +4190,7 @@
       <c r="H60" t="s">
         <v>41</v>
       </c>
-      <c r="I60" s="1" t="s">
+      <c r="I60" t="s">
         <v>2</v>
       </c>
       <c r="J60">
@@ -4026,8 +4202,11 @@
       <c r="N60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>19</v>
       </c>
@@ -4037,7 +4216,7 @@
       <c r="C61" t="s">
         <v>25</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="1" t="s">
         <v>238</v>
       </c>
       <c r="E61" t="s">
@@ -4052,7 +4231,7 @@
       <c r="H61" t="s">
         <v>41</v>
       </c>
-      <c r="I61" s="1" t="s">
+      <c r="I61" t="s">
         <v>2</v>
       </c>
       <c r="J61">
@@ -4064,8 +4243,11 @@
       <c r="N61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>19</v>
       </c>
@@ -4075,7 +4257,7 @@
       <c r="C62" t="s">
         <v>25</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="1" t="s">
         <v>231</v>
       </c>
       <c r="E62" t="s">
@@ -4090,14 +4272,17 @@
       <c r="H62" t="s">
         <v>41</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="I62" t="s">
         <v>56</v>
       </c>
       <c r="K62">
         <v>365</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>19</v>
       </c>
@@ -4107,7 +4292,7 @@
       <c r="C63" t="s">
         <v>25</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="1" t="s">
         <v>232</v>
       </c>
       <c r="E63" t="s">
@@ -4122,14 +4307,17 @@
       <c r="H63" t="s">
         <v>41</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="I63" t="s">
         <v>56</v>
       </c>
       <c r="K63">
         <v>365</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>19</v>
       </c>
@@ -4139,7 +4327,7 @@
       <c r="C64" t="s">
         <v>25</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="1" t="s">
         <v>233</v>
       </c>
       <c r="E64" t="s">
@@ -4154,14 +4342,17 @@
       <c r="H64" t="s">
         <v>41</v>
       </c>
-      <c r="I64" s="1" t="s">
+      <c r="I64" t="s">
         <v>56</v>
       </c>
       <c r="K64">
         <v>365</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>19</v>
       </c>
@@ -4171,7 +4362,7 @@
       <c r="C65" t="s">
         <v>25</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="1" t="s">
         <v>234</v>
       </c>
       <c r="E65" t="s">
@@ -4186,14 +4377,17 @@
       <c r="H65" t="s">
         <v>41</v>
       </c>
-      <c r="I65" s="1" t="s">
+      <c r="I65" t="s">
         <v>56</v>
       </c>
       <c r="K65">
         <v>365</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>19</v>
       </c>
@@ -4218,14 +4412,17 @@
       <c r="H66" t="s">
         <v>41</v>
       </c>
-      <c r="I66" s="1" t="s">
+      <c r="I66" t="s">
         <v>2</v>
       </c>
       <c r="J66">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>19</v>
       </c>
@@ -4250,14 +4447,17 @@
       <c r="H67" t="s">
         <v>41</v>
       </c>
-      <c r="I67" s="1" t="s">
+      <c r="I67" t="s">
         <v>2</v>
       </c>
       <c r="J67">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>19</v>
       </c>
@@ -4267,7 +4467,7 @@
       <c r="C68" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="1" t="s">
         <v>257</v>
       </c>
       <c r="E68" t="s">
@@ -4282,7 +4482,7 @@
       <c r="H68" t="s">
         <v>41</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="I68" t="s">
         <v>2</v>
       </c>
       <c r="J68">
@@ -4291,8 +4491,11 @@
       <c r="N68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>19</v>
       </c>
@@ -4302,7 +4505,7 @@
       <c r="C69" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="1" t="s">
         <v>258</v>
       </c>
       <c r="E69" t="s">
@@ -4317,7 +4520,7 @@
       <c r="H69" t="s">
         <v>41</v>
       </c>
-      <c r="I69" s="1" t="s">
+      <c r="I69" t="s">
         <v>2</v>
       </c>
       <c r="J69">
@@ -4326,8 +4529,11 @@
       <c r="N69">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>19</v>
       </c>
@@ -4337,7 +4543,7 @@
       <c r="C70" t="s">
         <v>25</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="1" t="s">
         <v>259</v>
       </c>
       <c r="E70" t="s">
@@ -4352,7 +4558,7 @@
       <c r="H70" t="s">
         <v>41</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="I70" t="s">
         <v>2</v>
       </c>
       <c r="J70">
@@ -4361,8 +4567,11 @@
       <c r="N70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>19</v>
       </c>
@@ -4372,7 +4581,7 @@
       <c r="C71" t="s">
         <v>25</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="1" t="s">
         <v>260</v>
       </c>
       <c r="E71" t="s">
@@ -4387,7 +4596,7 @@
       <c r="H71" t="s">
         <v>41</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="I71" t="s">
         <v>2</v>
       </c>
       <c r="J71">
@@ -4396,8 +4605,11 @@
       <c r="N71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -4407,7 +4619,7 @@
       <c r="C72" t="s">
         <v>25</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="1" t="s">
         <v>253</v>
       </c>
       <c r="E72" t="s">
@@ -4422,7 +4634,7 @@
       <c r="H72" t="s">
         <v>41</v>
       </c>
-      <c r="I72" s="1" t="s">
+      <c r="I72" t="s">
         <v>2</v>
       </c>
       <c r="J72">
@@ -4434,8 +4646,11 @@
       <c r="N72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>19</v>
       </c>
@@ -4445,7 +4660,7 @@
       <c r="C73" t="s">
         <v>25</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="1" t="s">
         <v>254</v>
       </c>
       <c r="E73" t="s">
@@ -4460,7 +4675,7 @@
       <c r="H73" t="s">
         <v>41</v>
       </c>
-      <c r="I73" s="1" t="s">
+      <c r="I73" t="s">
         <v>2</v>
       </c>
       <c r="J73">
@@ -4472,8 +4687,11 @@
       <c r="N73">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>19</v>
       </c>
@@ -4483,7 +4701,7 @@
       <c r="C74" t="s">
         <v>25</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="1" t="s">
         <v>255</v>
       </c>
       <c r="E74" t="s">
@@ -4498,7 +4716,7 @@
       <c r="H74" t="s">
         <v>41</v>
       </c>
-      <c r="I74" s="1" t="s">
+      <c r="I74" t="s">
         <v>2</v>
       </c>
       <c r="J74">
@@ -4510,8 +4728,11 @@
       <c r="N74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>19</v>
       </c>
@@ -4521,7 +4742,7 @@
       <c r="C75" t="s">
         <v>25</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D75" s="1" t="s">
         <v>256</v>
       </c>
       <c r="E75" t="s">
@@ -4536,7 +4757,7 @@
       <c r="H75" t="s">
         <v>41</v>
       </c>
-      <c r="I75" s="1" t="s">
+      <c r="I75" t="s">
         <v>2</v>
       </c>
       <c r="J75">
@@ -4548,8 +4769,11 @@
       <c r="N75">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>19</v>
       </c>
@@ -4559,7 +4783,7 @@
       <c r="C76" t="s">
         <v>25</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="1" t="s">
         <v>249</v>
       </c>
       <c r="E76" t="s">
@@ -4574,14 +4798,17 @@
       <c r="H76" t="s">
         <v>41</v>
       </c>
-      <c r="I76" s="1" t="s">
+      <c r="I76" t="s">
         <v>56</v>
       </c>
       <c r="K76">
         <v>365</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>19</v>
       </c>
@@ -4591,7 +4818,7 @@
       <c r="C77" t="s">
         <v>25</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="1" t="s">
         <v>250</v>
       </c>
       <c r="E77" t="s">
@@ -4606,14 +4833,17 @@
       <c r="H77" t="s">
         <v>41</v>
       </c>
-      <c r="I77" s="1" t="s">
+      <c r="I77" t="s">
         <v>56</v>
       </c>
       <c r="K77">
         <v>365</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>19</v>
       </c>
@@ -4623,7 +4853,7 @@
       <c r="C78" t="s">
         <v>25</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D78" s="1" t="s">
         <v>251</v>
       </c>
       <c r="E78" t="s">
@@ -4638,14 +4868,17 @@
       <c r="H78" t="s">
         <v>41</v>
       </c>
-      <c r="I78" s="1" t="s">
+      <c r="I78" t="s">
         <v>56</v>
       </c>
       <c r="K78">
         <v>365</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>19</v>
       </c>
@@ -4655,7 +4888,7 @@
       <c r="C79" t="s">
         <v>25</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D79" s="1" t="s">
         <v>252</v>
       </c>
       <c r="E79" t="s">
@@ -4670,14 +4903,17 @@
       <c r="H79" t="s">
         <v>41</v>
       </c>
-      <c r="I79" s="1" t="s">
+      <c r="I79" t="s">
         <v>56</v>
       </c>
       <c r="K79">
         <v>365</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -4687,7 +4923,7 @@
       <c r="C80" t="s">
         <v>25</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E80" t="s">
@@ -4702,7 +4938,7 @@
       <c r="H80" t="s">
         <v>41</v>
       </c>
-      <c r="I80" s="1" t="s">
+      <c r="I80" t="s">
         <v>2</v>
       </c>
       <c r="J80">
@@ -4711,8 +4947,11 @@
       <c r="N80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>19</v>
       </c>
@@ -4722,7 +4961,7 @@
       <c r="C81" t="s">
         <v>25</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E81" t="s">
@@ -4737,7 +4976,7 @@
       <c r="H81" t="s">
         <v>41</v>
       </c>
-      <c r="I81" s="1" t="s">
+      <c r="I81" t="s">
         <v>2</v>
       </c>
       <c r="J81">
@@ -4746,8 +4985,11 @@
       <c r="N81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>19</v>
       </c>
@@ -4757,7 +4999,7 @@
       <c r="C82" t="s">
         <v>25</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D82" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E82" t="s">
@@ -4772,7 +5014,7 @@
       <c r="H82" t="s">
         <v>41</v>
       </c>
-      <c r="I82" s="1" t="s">
+      <c r="I82" t="s">
         <v>2</v>
       </c>
       <c r="J82">
@@ -4781,8 +5023,11 @@
       <c r="N82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>19</v>
       </c>
@@ -4792,7 +5037,7 @@
       <c r="C83" t="s">
         <v>25</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D83" s="1" t="s">
         <v>65</v>
       </c>
       <c r="E83" t="s">
@@ -4807,7 +5052,7 @@
       <c r="H83" t="s">
         <v>41</v>
       </c>
-      <c r="I83" s="1" t="s">
+      <c r="I83" t="s">
         <v>2</v>
       </c>
       <c r="J83">
@@ -4816,8 +5061,11 @@
       <c r="N83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -4827,7 +5075,7 @@
       <c r="C84" t="s">
         <v>25</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E84" t="s">
@@ -4842,7 +5090,7 @@
       <c r="H84" t="s">
         <v>41</v>
       </c>
-      <c r="I84" s="1" t="s">
+      <c r="I84" t="s">
         <v>2</v>
       </c>
       <c r="J84">
@@ -4854,8 +5102,11 @@
       <c r="N84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>19</v>
       </c>
@@ -4865,7 +5116,7 @@
       <c r="C85" t="s">
         <v>25</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D85" s="1" t="s">
         <v>59</v>
       </c>
       <c r="E85" t="s">
@@ -4880,7 +5131,7 @@
       <c r="H85" t="s">
         <v>41</v>
       </c>
-      <c r="I85" s="1" t="s">
+      <c r="I85" t="s">
         <v>2</v>
       </c>
       <c r="J85">
@@ -4892,8 +5143,11 @@
       <c r="N85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>19</v>
       </c>
@@ -4903,7 +5157,7 @@
       <c r="C86" t="s">
         <v>25</v>
       </c>
-      <c r="D86" s="2" t="s">
+      <c r="D86" s="1" t="s">
         <v>60</v>
       </c>
       <c r="E86" t="s">
@@ -4918,7 +5172,7 @@
       <c r="H86" t="s">
         <v>41</v>
       </c>
-      <c r="I86" s="1" t="s">
+      <c r="I86" t="s">
         <v>2</v>
       </c>
       <c r="J86">
@@ -4930,8 +5184,11 @@
       <c r="N86">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -4941,7 +5198,7 @@
       <c r="C87" t="s">
         <v>25</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="1" t="s">
         <v>61</v>
       </c>
       <c r="E87" t="s">
@@ -4956,7 +5213,7 @@
       <c r="H87" t="s">
         <v>41</v>
       </c>
-      <c r="I87" s="1" t="s">
+      <c r="I87" t="s">
         <v>2</v>
       </c>
       <c r="J87">
@@ -4968,8 +5225,11 @@
       <c r="N87">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>19</v>
       </c>
@@ -4979,7 +5239,7 @@
       <c r="C88" t="s">
         <v>25</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E88" t="s">
@@ -4994,14 +5254,17 @@
       <c r="H88" t="s">
         <v>41</v>
       </c>
-      <c r="I88" s="1" t="s">
+      <c r="I88" t="s">
         <v>56</v>
       </c>
       <c r="K88">
         <v>365</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>19</v>
       </c>
@@ -5011,7 +5274,7 @@
       <c r="C89" t="s">
         <v>25</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E89" t="s">
@@ -5026,14 +5289,17 @@
       <c r="H89" t="s">
         <v>41</v>
       </c>
-      <c r="I89" s="1" t="s">
+      <c r="I89" t="s">
         <v>56</v>
       </c>
       <c r="K89">
         <v>365</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>19</v>
       </c>
@@ -5043,7 +5309,7 @@
       <c r="C90" t="s">
         <v>25</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="1" t="s">
         <v>51</v>
       </c>
       <c r="E90" t="s">
@@ -5058,14 +5324,17 @@
       <c r="H90" t="s">
         <v>41</v>
       </c>
-      <c r="I90" s="1" t="s">
+      <c r="I90" t="s">
         <v>56</v>
       </c>
       <c r="K90">
         <v>365</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>19</v>
       </c>
@@ -5075,7 +5344,7 @@
       <c r="C91" t="s">
         <v>25</v>
       </c>
-      <c r="D91" s="2" t="s">
+      <c r="D91" s="1" t="s">
         <v>52</v>
       </c>
       <c r="E91" t="s">
@@ -5090,14 +5359,17 @@
       <c r="H91" t="s">
         <v>41</v>
       </c>
-      <c r="I91" s="1" t="s">
+      <c r="I91" t="s">
         <v>56</v>
       </c>
       <c r="K91">
         <v>365</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>19</v>
       </c>
@@ -5107,7 +5379,7 @@
       <c r="C92" t="s">
         <v>25</v>
       </c>
-      <c r="D92" s="2" t="s">
+      <c r="D92" s="1" t="s">
         <v>289</v>
       </c>
       <c r="E92" t="s">
@@ -5122,7 +5394,7 @@
       <c r="H92" t="s">
         <v>41</v>
       </c>
-      <c r="I92" s="1" t="s">
+      <c r="I92" t="s">
         <v>2</v>
       </c>
       <c r="J92">
@@ -5131,8 +5403,11 @@
       <c r="N92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>19</v>
       </c>
@@ -5142,7 +5417,7 @@
       <c r="C93" t="s">
         <v>25</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="1" t="s">
         <v>290</v>
       </c>
       <c r="E93" t="s">
@@ -5157,7 +5432,7 @@
       <c r="H93" t="s">
         <v>41</v>
       </c>
-      <c r="I93" s="1" t="s">
+      <c r="I93" t="s">
         <v>2</v>
       </c>
       <c r="J93">
@@ -5166,8 +5441,11 @@
       <c r="N93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>19</v>
       </c>
@@ -5177,7 +5455,7 @@
       <c r="C94" t="s">
         <v>25</v>
       </c>
-      <c r="D94" s="2" t="s">
+      <c r="D94" s="1" t="s">
         <v>287</v>
       </c>
       <c r="E94" t="s">
@@ -5192,7 +5470,7 @@
       <c r="H94" t="s">
         <v>41</v>
       </c>
-      <c r="I94" s="1" t="s">
+      <c r="I94" t="s">
         <v>2</v>
       </c>
       <c r="J94">
@@ -5204,8 +5482,11 @@
       <c r="N94">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>19</v>
       </c>
@@ -5215,7 +5496,7 @@
       <c r="C95" t="s">
         <v>25</v>
       </c>
-      <c r="D95" s="2" t="s">
+      <c r="D95" s="1" t="s">
         <v>288</v>
       </c>
       <c r="E95" t="s">
@@ -5230,7 +5511,7 @@
       <c r="H95" t="s">
         <v>41</v>
       </c>
-      <c r="I95" s="1" t="s">
+      <c r="I95" t="s">
         <v>2</v>
       </c>
       <c r="J95">
@@ -5242,8 +5523,11 @@
       <c r="N95">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>19</v>
       </c>
@@ -5253,7 +5537,7 @@
       <c r="C96" t="s">
         <v>25</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="1" t="s">
         <v>285</v>
       </c>
       <c r="E96" t="s">
@@ -5268,14 +5552,17 @@
       <c r="H96" t="s">
         <v>41</v>
       </c>
-      <c r="I96" s="1" t="s">
+      <c r="I96" t="s">
         <v>56</v>
       </c>
       <c r="K96">
         <v>365</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>19</v>
       </c>
@@ -5285,7 +5572,7 @@
       <c r="C97" t="s">
         <v>25</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D97" s="1" t="s">
         <v>286</v>
       </c>
       <c r="E97" t="s">
@@ -5300,14 +5587,17 @@
       <c r="H97" t="s">
         <v>41</v>
       </c>
-      <c r="I97" s="1" t="s">
+      <c r="I97" t="s">
         <v>56</v>
       </c>
       <c r="K97">
         <v>365</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>19</v>
       </c>
@@ -5317,7 +5607,7 @@
       <c r="C98" t="s">
         <v>25</v>
       </c>
-      <c r="D98" s="2" t="s">
+      <c r="D98" s="1" t="s">
         <v>301</v>
       </c>
       <c r="E98" t="s">
@@ -5332,7 +5622,7 @@
       <c r="H98" t="s">
         <v>41</v>
       </c>
-      <c r="I98" s="1" t="s">
+      <c r="I98" t="s">
         <v>2</v>
       </c>
       <c r="J98">
@@ -5341,8 +5631,11 @@
       <c r="N98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>19</v>
       </c>
@@ -5352,7 +5645,7 @@
       <c r="C99" t="s">
         <v>25</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="1" t="s">
         <v>302</v>
       </c>
       <c r="E99" t="s">
@@ -5367,7 +5660,7 @@
       <c r="H99" t="s">
         <v>41</v>
       </c>
-      <c r="I99" s="1" t="s">
+      <c r="I99" t="s">
         <v>2</v>
       </c>
       <c r="J99">
@@ -5376,8 +5669,11 @@
       <c r="N99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>19</v>
       </c>
@@ -5387,7 +5683,7 @@
       <c r="C100" t="s">
         <v>25</v>
       </c>
-      <c r="D100" s="2" t="s">
+      <c r="D100" s="1" t="s">
         <v>299</v>
       </c>
       <c r="E100" t="s">
@@ -5402,7 +5698,7 @@
       <c r="H100" t="s">
         <v>41</v>
       </c>
-      <c r="I100" s="1" t="s">
+      <c r="I100" t="s">
         <v>2</v>
       </c>
       <c r="J100">
@@ -5414,8 +5710,11 @@
       <c r="N100">
         <v>1</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>19</v>
       </c>
@@ -5425,7 +5724,7 @@
       <c r="C101" t="s">
         <v>25</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="1" t="s">
         <v>300</v>
       </c>
       <c r="E101" t="s">
@@ -5440,7 +5739,7 @@
       <c r="H101" t="s">
         <v>41</v>
       </c>
-      <c r="I101" s="1" t="s">
+      <c r="I101" t="s">
         <v>2</v>
       </c>
       <c r="J101">
@@ -5452,8 +5751,11 @@
       <c r="N101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>19</v>
       </c>
@@ -5463,7 +5765,7 @@
       <c r="C102" t="s">
         <v>25</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="1" t="s">
         <v>297</v>
       </c>
       <c r="E102" t="s">
@@ -5478,14 +5780,17 @@
       <c r="H102" t="s">
         <v>41</v>
       </c>
-      <c r="I102" s="1" t="s">
+      <c r="I102" t="s">
         <v>56</v>
       </c>
       <c r="K102">
         <v>365</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>19</v>
       </c>
@@ -5495,7 +5800,7 @@
       <c r="C103" t="s">
         <v>25</v>
       </c>
-      <c r="D103" s="2" t="s">
+      <c r="D103" s="1" t="s">
         <v>298</v>
       </c>
       <c r="E103" t="s">
@@ -5510,14 +5815,17 @@
       <c r="H103" t="s">
         <v>41</v>
       </c>
-      <c r="I103" s="1" t="s">
+      <c r="I103" t="s">
         <v>56</v>
       </c>
       <c r="K103">
         <v>365</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>19</v>
       </c>
@@ -5542,14 +5850,17 @@
       <c r="H104" t="s">
         <v>41</v>
       </c>
-      <c r="I104" s="1" t="s">
+      <c r="I104" t="s">
         <v>2</v>
       </c>
       <c r="J104">
         <v>4</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>19</v>
       </c>
@@ -5574,14 +5885,17 @@
       <c r="H105" t="s">
         <v>41</v>
       </c>
-      <c r="I105" s="1" t="s">
+      <c r="I105" t="s">
         <v>2</v>
       </c>
       <c r="J105">
         <v>4</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>19</v>
       </c>
@@ -5606,14 +5920,17 @@
       <c r="H106" t="s">
         <v>46</v>
       </c>
-      <c r="I106" s="1" t="s">
+      <c r="I106" t="s">
         <v>2</v>
       </c>
       <c r="J106">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>19</v>
       </c>
@@ -5638,14 +5955,17 @@
       <c r="H107" t="s">
         <v>46</v>
       </c>
-      <c r="I107" s="1" t="s">
+      <c r="I107" t="s">
         <v>2</v>
       </c>
       <c r="J107">
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>19</v>
       </c>
@@ -5655,7 +5975,7 @@
       <c r="C108" t="s">
         <v>25</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" s="1" t="s">
         <v>179</v>
       </c>
       <c r="E108" t="s">
@@ -5670,7 +5990,7 @@
       <c r="H108" t="s">
         <v>41</v>
       </c>
-      <c r="I108" s="1" t="s">
+      <c r="I108" t="s">
         <v>2</v>
       </c>
       <c r="J108">
@@ -5679,8 +5999,11 @@
       <c r="N108">
         <v>1</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>19</v>
       </c>
@@ -5690,7 +6013,7 @@
       <c r="C109" t="s">
         <v>25</v>
       </c>
-      <c r="D109" s="2" t="s">
+      <c r="D109" s="1" t="s">
         <v>180</v>
       </c>
       <c r="E109" t="s">
@@ -5705,7 +6028,7 @@
       <c r="H109" t="s">
         <v>41</v>
       </c>
-      <c r="I109" s="1" t="s">
+      <c r="I109" t="s">
         <v>2</v>
       </c>
       <c r="J109">
@@ -5714,8 +6037,11 @@
       <c r="N109">
         <v>1</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>19</v>
       </c>
@@ -5725,7 +6051,7 @@
       <c r="C110" t="s">
         <v>25</v>
       </c>
-      <c r="D110" s="2" t="s">
+      <c r="D110" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E110" t="s">
@@ -5740,7 +6066,7 @@
       <c r="H110" t="s">
         <v>41</v>
       </c>
-      <c r="I110" s="1" t="s">
+      <c r="I110" t="s">
         <v>2</v>
       </c>
       <c r="J110">
@@ -5749,8 +6075,11 @@
       <c r="N110">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>19</v>
       </c>
@@ -5760,7 +6089,7 @@
       <c r="C111" t="s">
         <v>25</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D111" s="1" t="s">
         <v>182</v>
       </c>
       <c r="E111" t="s">
@@ -5775,7 +6104,7 @@
       <c r="H111" t="s">
         <v>41</v>
       </c>
-      <c r="I111" s="1" t="s">
+      <c r="I111" t="s">
         <v>2</v>
       </c>
       <c r="J111">
@@ -5784,8 +6113,11 @@
       <c r="N111">
         <v>1</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>19</v>
       </c>
@@ -5795,7 +6127,7 @@
       <c r="C112" t="s">
         <v>25</v>
       </c>
-      <c r="D112" s="2" t="s">
+      <c r="D112" s="1" t="s">
         <v>175</v>
       </c>
       <c r="E112" t="s">
@@ -5810,7 +6142,7 @@
       <c r="H112" t="s">
         <v>41</v>
       </c>
-      <c r="I112" s="1" t="s">
+      <c r="I112" t="s">
         <v>2</v>
       </c>
       <c r="J112">
@@ -5822,8 +6154,11 @@
       <c r="N112">
         <v>1</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>19</v>
       </c>
@@ -5833,7 +6168,7 @@
       <c r="C113" t="s">
         <v>25</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D113" s="1" t="s">
         <v>176</v>
       </c>
       <c r="E113" t="s">
@@ -5848,7 +6183,7 @@
       <c r="H113" t="s">
         <v>41</v>
       </c>
-      <c r="I113" s="1" t="s">
+      <c r="I113" t="s">
         <v>2</v>
       </c>
       <c r="J113">
@@ -5860,8 +6195,11 @@
       <c r="N113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>19</v>
       </c>
@@ -5871,7 +6209,7 @@
       <c r="C114" t="s">
         <v>25</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D114" s="1" t="s">
         <v>177</v>
       </c>
       <c r="E114" t="s">
@@ -5886,7 +6224,7 @@
       <c r="H114" t="s">
         <v>41</v>
       </c>
-      <c r="I114" s="1" t="s">
+      <c r="I114" t="s">
         <v>2</v>
       </c>
       <c r="J114">
@@ -5898,8 +6236,11 @@
       <c r="N114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>19</v>
       </c>
@@ -5909,7 +6250,7 @@
       <c r="C115" t="s">
         <v>25</v>
       </c>
-      <c r="D115" s="2" t="s">
+      <c r="D115" s="1" t="s">
         <v>178</v>
       </c>
       <c r="E115" t="s">
@@ -5924,7 +6265,7 @@
       <c r="H115" t="s">
         <v>41</v>
       </c>
-      <c r="I115" s="1" t="s">
+      <c r="I115" t="s">
         <v>2</v>
       </c>
       <c r="J115">
@@ -5936,8 +6277,11 @@
       <c r="N115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>19</v>
       </c>
@@ -5947,7 +6291,7 @@
       <c r="C116" t="s">
         <v>25</v>
       </c>
-      <c r="D116" s="2" t="s">
+      <c r="D116" s="1" t="s">
         <v>171</v>
       </c>
       <c r="E116" t="s">
@@ -5962,14 +6306,17 @@
       <c r="H116" t="s">
         <v>41</v>
       </c>
-      <c r="I116" s="1" t="s">
+      <c r="I116" t="s">
         <v>56</v>
       </c>
       <c r="K116">
         <v>365</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>19</v>
       </c>
@@ -5979,7 +6326,7 @@
       <c r="C117" t="s">
         <v>25</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D117" s="1" t="s">
         <v>172</v>
       </c>
       <c r="E117" t="s">
@@ -5994,14 +6341,17 @@
       <c r="H117" t="s">
         <v>41</v>
       </c>
-      <c r="I117" s="1" t="s">
+      <c r="I117" t="s">
         <v>56</v>
       </c>
       <c r="K117">
         <v>365</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>19</v>
       </c>
@@ -6011,7 +6361,7 @@
       <c r="C118" t="s">
         <v>25</v>
       </c>
-      <c r="D118" s="2" t="s">
+      <c r="D118" s="1" t="s">
         <v>173</v>
       </c>
       <c r="E118" t="s">
@@ -6026,14 +6376,17 @@
       <c r="H118" t="s">
         <v>41</v>
       </c>
-      <c r="I118" s="1" t="s">
+      <c r="I118" t="s">
         <v>56</v>
       </c>
       <c r="K118">
         <v>365</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>19</v>
       </c>
@@ -6043,7 +6396,7 @@
       <c r="C119" t="s">
         <v>25</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D119" s="1" t="s">
         <v>174</v>
       </c>
       <c r="E119" t="s">
@@ -6058,14 +6411,17 @@
       <c r="H119" t="s">
         <v>41</v>
       </c>
-      <c r="I119" s="1" t="s">
+      <c r="I119" t="s">
         <v>56</v>
       </c>
       <c r="K119">
         <v>365</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>19</v>
       </c>
@@ -6075,7 +6431,7 @@
       <c r="C120" t="s">
         <v>25</v>
       </c>
-      <c r="D120" s="2" t="s">
+      <c r="D120" s="1" t="s">
         <v>314</v>
       </c>
       <c r="E120" t="s">
@@ -6090,7 +6446,7 @@
       <c r="H120" t="s">
         <v>41</v>
       </c>
-      <c r="I120" s="1" t="s">
+      <c r="I120" t="s">
         <v>2</v>
       </c>
       <c r="J120">
@@ -6099,8 +6455,11 @@
       <c r="N120">
         <v>1</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>19</v>
       </c>
@@ -6110,7 +6469,7 @@
       <c r="C121" t="s">
         <v>25</v>
       </c>
-      <c r="D121" s="2" t="s">
+      <c r="D121" s="1" t="s">
         <v>315</v>
       </c>
       <c r="E121" t="s">
@@ -6125,7 +6484,7 @@
       <c r="H121" t="s">
         <v>41</v>
       </c>
-      <c r="I121" s="1" t="s">
+      <c r="I121" t="s">
         <v>2</v>
       </c>
       <c r="J121">
@@ -6134,8 +6493,11 @@
       <c r="N121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>19</v>
       </c>
@@ -6145,7 +6507,7 @@
       <c r="C122" t="s">
         <v>25</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D122" s="1" t="s">
         <v>316</v>
       </c>
       <c r="E122" t="s">
@@ -6160,7 +6522,7 @@
       <c r="H122" t="s">
         <v>41</v>
       </c>
-      <c r="I122" s="1" t="s">
+      <c r="I122" t="s">
         <v>2</v>
       </c>
       <c r="J122">
@@ -6169,8 +6531,11 @@
       <c r="N122">
         <v>1</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>19</v>
       </c>
@@ -6180,7 +6545,7 @@
       <c r="C123" t="s">
         <v>25</v>
       </c>
-      <c r="D123" s="2" t="s">
+      <c r="D123" s="1" t="s">
         <v>317</v>
       </c>
       <c r="E123" t="s">
@@ -6195,7 +6560,7 @@
       <c r="H123" t="s">
         <v>41</v>
       </c>
-      <c r="I123" s="1" t="s">
+      <c r="I123" t="s">
         <v>2</v>
       </c>
       <c r="J123">
@@ -6207,8 +6572,11 @@
       <c r="N123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>19</v>
       </c>
@@ -6218,7 +6586,7 @@
       <c r="C124" t="s">
         <v>25</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D124" s="1" t="s">
         <v>318</v>
       </c>
       <c r="E124" t="s">
@@ -6233,7 +6601,7 @@
       <c r="H124" t="s">
         <v>41</v>
       </c>
-      <c r="I124" s="1" t="s">
+      <c r="I124" t="s">
         <v>2</v>
       </c>
       <c r="J124">
@@ -6245,8 +6613,11 @@
       <c r="N124">
         <v>1</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>19</v>
       </c>
@@ -6256,7 +6627,7 @@
       <c r="C125" t="s">
         <v>25</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="D125" s="1" t="s">
         <v>319</v>
       </c>
       <c r="E125" t="s">
@@ -6271,7 +6642,7 @@
       <c r="H125" t="s">
         <v>41</v>
       </c>
-      <c r="I125" s="1" t="s">
+      <c r="I125" t="s">
         <v>2</v>
       </c>
       <c r="J125">
@@ -6283,8 +6654,11 @@
       <c r="N125">
         <v>1</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>19</v>
       </c>
@@ -6294,7 +6668,7 @@
       <c r="C126" t="s">
         <v>25</v>
       </c>
-      <c r="D126" s="2" t="s">
+      <c r="D126" s="1" t="s">
         <v>321</v>
       </c>
       <c r="E126" t="s">
@@ -6309,14 +6683,17 @@
       <c r="H126" t="s">
         <v>41</v>
       </c>
-      <c r="I126" s="1" t="s">
+      <c r="I126" t="s">
         <v>56</v>
       </c>
       <c r="K126">
         <v>365</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>19</v>
       </c>
@@ -6326,7 +6703,7 @@
       <c r="C127" t="s">
         <v>25</v>
       </c>
-      <c r="D127" s="2" t="s">
+      <c r="D127" s="1" t="s">
         <v>322</v>
       </c>
       <c r="E127" t="s">
@@ -6341,14 +6718,17 @@
       <c r="H127" t="s">
         <v>41</v>
       </c>
-      <c r="I127" s="1" t="s">
+      <c r="I127" t="s">
         <v>56</v>
       </c>
       <c r="K127">
         <v>365</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>19</v>
       </c>
@@ -6358,7 +6738,7 @@
       <c r="C128" t="s">
         <v>25</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D128" s="1" t="s">
         <v>323</v>
       </c>
       <c r="E128" t="s">
@@ -6373,14 +6753,17 @@
       <c r="H128" t="s">
         <v>41</v>
       </c>
-      <c r="I128" s="1" t="s">
+      <c r="I128" t="s">
         <v>56</v>
       </c>
       <c r="K128">
         <v>365</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>19</v>
       </c>
@@ -6390,7 +6773,7 @@
       <c r="C129" t="s">
         <v>25</v>
       </c>
-      <c r="D129" s="2" t="s">
+      <c r="D129" s="1" t="s">
         <v>107</v>
       </c>
       <c r="E129" t="s">
@@ -6405,7 +6788,7 @@
       <c r="H129" t="s">
         <v>41</v>
       </c>
-      <c r="I129" s="1" t="s">
+      <c r="I129" t="s">
         <v>2</v>
       </c>
       <c r="J129">
@@ -6414,8 +6797,11 @@
       <c r="N129">
         <v>1</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>19</v>
       </c>
@@ -6425,7 +6811,7 @@
       <c r="C130" t="s">
         <v>25</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D130" s="1" t="s">
         <v>108</v>
       </c>
       <c r="E130" t="s">
@@ -6440,7 +6826,7 @@
       <c r="H130" t="s">
         <v>41</v>
       </c>
-      <c r="I130" s="1" t="s">
+      <c r="I130" t="s">
         <v>2</v>
       </c>
       <c r="J130">
@@ -6449,8 +6835,11 @@
       <c r="N130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>19</v>
       </c>
@@ -6460,7 +6849,7 @@
       <c r="C131" t="s">
         <v>25</v>
       </c>
-      <c r="D131" s="2" t="s">
+      <c r="D131" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E131" t="s">
@@ -6475,7 +6864,7 @@
       <c r="H131" t="s">
         <v>41</v>
       </c>
-      <c r="I131" s="1" t="s">
+      <c r="I131" t="s">
         <v>2</v>
       </c>
       <c r="J131">
@@ -6484,8 +6873,11 @@
       <c r="N131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>19</v>
       </c>
@@ -6495,7 +6887,7 @@
       <c r="C132" t="s">
         <v>25</v>
       </c>
-      <c r="D132" s="2" t="s">
+      <c r="D132" s="1" t="s">
         <v>110</v>
       </c>
       <c r="E132" t="s">
@@ -6510,7 +6902,7 @@
       <c r="H132" t="s">
         <v>41</v>
       </c>
-      <c r="I132" s="1" t="s">
+      <c r="I132" t="s">
         <v>2</v>
       </c>
       <c r="J132">
@@ -6519,8 +6911,11 @@
       <c r="N132">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O132">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>19</v>
       </c>
@@ -6545,7 +6940,7 @@
       <c r="H133" t="s">
         <v>41</v>
       </c>
-      <c r="I133" s="1" t="s">
+      <c r="I133" t="s">
         <v>2</v>
       </c>
       <c r="J133">
@@ -6554,8 +6949,11 @@
       <c r="K133">
         <v>365</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O133">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>19</v>
       </c>
@@ -6580,7 +6978,7 @@
       <c r="H134" t="s">
         <v>41</v>
       </c>
-      <c r="I134" s="1" t="s">
+      <c r="I134" t="s">
         <v>2</v>
       </c>
       <c r="J134">
@@ -6589,8 +6987,11 @@
       <c r="K134">
         <v>365</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>19</v>
       </c>
@@ -6615,7 +7016,7 @@
       <c r="H135" t="s">
         <v>41</v>
       </c>
-      <c r="I135" s="1" t="s">
+      <c r="I135" t="s">
         <v>2</v>
       </c>
       <c r="J135">
@@ -6624,8 +7025,11 @@
       <c r="K135">
         <v>365</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O135">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>19</v>
       </c>
@@ -6635,7 +7039,7 @@
       <c r="C136" t="s">
         <v>25</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="D136" s="1" t="s">
         <v>103</v>
       </c>
       <c r="E136" t="s">
@@ -6650,7 +7054,7 @@
       <c r="H136" t="s">
         <v>41</v>
       </c>
-      <c r="I136" s="1" t="s">
+      <c r="I136" t="s">
         <v>2</v>
       </c>
       <c r="J136">
@@ -6662,8 +7066,11 @@
       <c r="N136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O136">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>19</v>
       </c>
@@ -6673,7 +7080,7 @@
       <c r="C137" t="s">
         <v>25</v>
       </c>
-      <c r="D137" s="2" t="s">
+      <c r="D137" s="1" t="s">
         <v>104</v>
       </c>
       <c r="E137" t="s">
@@ -6688,7 +7095,7 @@
       <c r="H137" t="s">
         <v>41</v>
       </c>
-      <c r="I137" s="1" t="s">
+      <c r="I137" t="s">
         <v>2</v>
       </c>
       <c r="J137">
@@ -6700,8 +7107,11 @@
       <c r="N137">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O137">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>19</v>
       </c>
@@ -6711,7 +7121,7 @@
       <c r="C138" t="s">
         <v>25</v>
       </c>
-      <c r="D138" s="2" t="s">
+      <c r="D138" s="1" t="s">
         <v>105</v>
       </c>
       <c r="E138" t="s">
@@ -6726,7 +7136,7 @@
       <c r="H138" t="s">
         <v>41</v>
       </c>
-      <c r="I138" s="1" t="s">
+      <c r="I138" t="s">
         <v>2</v>
       </c>
       <c r="J138">
@@ -6738,8 +7148,11 @@
       <c r="N138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>19</v>
       </c>
@@ -6749,7 +7162,7 @@
       <c r="C139" t="s">
         <v>25</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="D139" s="1" t="s">
         <v>106</v>
       </c>
       <c r="E139" t="s">
@@ -6764,7 +7177,7 @@
       <c r="H139" t="s">
         <v>41</v>
       </c>
-      <c r="I139" s="1" t="s">
+      <c r="I139" t="s">
         <v>2</v>
       </c>
       <c r="J139">
@@ -6776,8 +7189,11 @@
       <c r="N139">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>19</v>
       </c>
@@ -6787,7 +7203,7 @@
       <c r="C140" t="s">
         <v>25</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="D140" s="1" t="s">
         <v>99</v>
       </c>
       <c r="E140" t="s">
@@ -6802,14 +7218,17 @@
       <c r="H140" t="s">
         <v>41</v>
       </c>
-      <c r="I140" s="1" t="s">
+      <c r="I140" t="s">
         <v>56</v>
       </c>
       <c r="K140">
         <v>365</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>19</v>
       </c>
@@ -6819,7 +7238,7 @@
       <c r="C141" t="s">
         <v>25</v>
       </c>
-      <c r="D141" s="2" t="s">
+      <c r="D141" s="1" t="s">
         <v>100</v>
       </c>
       <c r="E141" t="s">
@@ -6834,14 +7253,17 @@
       <c r="H141" t="s">
         <v>41</v>
       </c>
-      <c r="I141" s="1" t="s">
+      <c r="I141" t="s">
         <v>56</v>
       </c>
       <c r="K141">
         <v>365</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O141">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>19</v>
       </c>
@@ -6851,7 +7273,7 @@
       <c r="C142" t="s">
         <v>25</v>
       </c>
-      <c r="D142" s="2" t="s">
+      <c r="D142" s="1" t="s">
         <v>101</v>
       </c>
       <c r="E142" t="s">
@@ -6866,14 +7288,17 @@
       <c r="H142" t="s">
         <v>41</v>
       </c>
-      <c r="I142" s="1" t="s">
+      <c r="I142" t="s">
         <v>56</v>
       </c>
       <c r="K142">
         <v>365</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O142">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>19</v>
       </c>
@@ -6883,7 +7308,7 @@
       <c r="C143" t="s">
         <v>25</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="D143" s="1" t="s">
         <v>102</v>
       </c>
       <c r="E143" t="s">
@@ -6898,14 +7323,17 @@
       <c r="H143" t="s">
         <v>41</v>
       </c>
-      <c r="I143" s="1" t="s">
+      <c r="I143" t="s">
         <v>56</v>
       </c>
       <c r="K143">
         <v>365</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O143">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>19</v>
       </c>
@@ -6915,7 +7343,7 @@
       <c r="C144" t="s">
         <v>25</v>
       </c>
-      <c r="D144" s="2" t="s">
+      <c r="D144" s="1" t="s">
         <v>306</v>
       </c>
       <c r="E144" t="s">
@@ -6930,14 +7358,17 @@
       <c r="H144" t="s">
         <v>46</v>
       </c>
-      <c r="I144" s="1" t="s">
+      <c r="I144" t="s">
         <v>56</v>
       </c>
       <c r="K144">
         <v>365</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>19</v>
       </c>
@@ -6947,7 +7378,7 @@
       <c r="C145" t="s">
         <v>25</v>
       </c>
-      <c r="D145" s="2" t="s">
+      <c r="D145" s="1" t="s">
         <v>307</v>
       </c>
       <c r="E145" t="s">
@@ -6962,14 +7393,17 @@
       <c r="H145" t="s">
         <v>46</v>
       </c>
-      <c r="I145" s="1" t="s">
+      <c r="I145" t="s">
         <v>56</v>
       </c>
       <c r="K145">
         <v>365</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>19</v>
       </c>
@@ -6979,7 +7413,7 @@
       <c r="C146" t="s">
         <v>25</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="D146" s="1" t="s">
         <v>167</v>
       </c>
       <c r="E146" t="s">
@@ -6994,7 +7428,7 @@
       <c r="H146" t="s">
         <v>41</v>
       </c>
-      <c r="I146" s="1" t="s">
+      <c r="I146" t="s">
         <v>2</v>
       </c>
       <c r="J146">
@@ -7003,8 +7437,11 @@
       <c r="N146">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>19</v>
       </c>
@@ -7014,7 +7451,7 @@
       <c r="C147" t="s">
         <v>25</v>
       </c>
-      <c r="D147" s="2" t="s">
+      <c r="D147" s="1" t="s">
         <v>168</v>
       </c>
       <c r="E147" t="s">
@@ -7029,7 +7466,7 @@
       <c r="H147" t="s">
         <v>41</v>
       </c>
-      <c r="I147" s="1" t="s">
+      <c r="I147" t="s">
         <v>2</v>
       </c>
       <c r="J147">
@@ -7038,8 +7475,11 @@
       <c r="N147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>19</v>
       </c>
@@ -7049,7 +7489,7 @@
       <c r="C148" t="s">
         <v>25</v>
       </c>
-      <c r="D148" s="2" t="s">
+      <c r="D148" s="1" t="s">
         <v>169</v>
       </c>
       <c r="E148" t="s">
@@ -7064,7 +7504,7 @@
       <c r="H148" t="s">
         <v>41</v>
       </c>
-      <c r="I148" s="1" t="s">
+      <c r="I148" t="s">
         <v>2</v>
       </c>
       <c r="J148">
@@ -7073,8 +7513,11 @@
       <c r="N148">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>19</v>
       </c>
@@ -7084,7 +7527,7 @@
       <c r="C149" t="s">
         <v>25</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="D149" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E149" t="s">
@@ -7099,7 +7542,7 @@
       <c r="H149" t="s">
         <v>41</v>
       </c>
-      <c r="I149" s="1" t="s">
+      <c r="I149" t="s">
         <v>2</v>
       </c>
       <c r="J149">
@@ -7108,8 +7551,11 @@
       <c r="N149">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>19</v>
       </c>
@@ -7119,7 +7565,7 @@
       <c r="C150" t="s">
         <v>25</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="D150" s="1" t="s">
         <v>163</v>
       </c>
       <c r="E150" t="s">
@@ -7134,7 +7580,7 @@
       <c r="H150" t="s">
         <v>41</v>
       </c>
-      <c r="I150" s="1" t="s">
+      <c r="I150" t="s">
         <v>2</v>
       </c>
       <c r="J150">
@@ -7146,8 +7592,11 @@
       <c r="N150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>19</v>
       </c>
@@ -7157,7 +7606,7 @@
       <c r="C151" t="s">
         <v>25</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="D151" s="1" t="s">
         <v>164</v>
       </c>
       <c r="E151" t="s">
@@ -7172,7 +7621,7 @@
       <c r="H151" t="s">
         <v>41</v>
       </c>
-      <c r="I151" s="1" t="s">
+      <c r="I151" t="s">
         <v>2</v>
       </c>
       <c r="J151">
@@ -7184,8 +7633,11 @@
       <c r="N151">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>19</v>
       </c>
@@ -7195,7 +7647,7 @@
       <c r="C152" t="s">
         <v>25</v>
       </c>
-      <c r="D152" s="2" t="s">
+      <c r="D152" s="1" t="s">
         <v>165</v>
       </c>
       <c r="E152" t="s">
@@ -7210,7 +7662,7 @@
       <c r="H152" t="s">
         <v>41</v>
       </c>
-      <c r="I152" s="1" t="s">
+      <c r="I152" t="s">
         <v>2</v>
       </c>
       <c r="J152">
@@ -7222,8 +7674,11 @@
       <c r="N152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>19</v>
       </c>
@@ -7233,7 +7688,7 @@
       <c r="C153" t="s">
         <v>25</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="D153" s="1" t="s">
         <v>166</v>
       </c>
       <c r="E153" t="s">
@@ -7248,7 +7703,7 @@
       <c r="H153" t="s">
         <v>41</v>
       </c>
-      <c r="I153" s="1" t="s">
+      <c r="I153" t="s">
         <v>2</v>
       </c>
       <c r="J153">
@@ -7260,8 +7715,11 @@
       <c r="N153">
         <v>1</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>19</v>
       </c>
@@ -7271,7 +7729,7 @@
       <c r="C154" t="s">
         <v>25</v>
       </c>
-      <c r="D154" s="2" t="s">
+      <c r="D154" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E154" t="s">
@@ -7286,14 +7744,17 @@
       <c r="H154" t="s">
         <v>41</v>
       </c>
-      <c r="I154" s="1" t="s">
+      <c r="I154" t="s">
         <v>56</v>
       </c>
       <c r="K154">
         <v>365</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>19</v>
       </c>
@@ -7303,7 +7764,7 @@
       <c r="C155" t="s">
         <v>25</v>
       </c>
-      <c r="D155" s="2" t="s">
+      <c r="D155" s="1" t="s">
         <v>160</v>
       </c>
       <c r="E155" t="s">
@@ -7318,14 +7779,17 @@
       <c r="H155" t="s">
         <v>41</v>
       </c>
-      <c r="I155" s="1" t="s">
+      <c r="I155" t="s">
         <v>56</v>
       </c>
       <c r="K155">
         <v>365</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>19</v>
       </c>
@@ -7335,7 +7799,7 @@
       <c r="C156" t="s">
         <v>25</v>
       </c>
-      <c r="D156" s="2" t="s">
+      <c r="D156" s="1" t="s">
         <v>161</v>
       </c>
       <c r="E156" t="s">
@@ -7350,14 +7814,17 @@
       <c r="H156" t="s">
         <v>41</v>
       </c>
-      <c r="I156" s="1" t="s">
+      <c r="I156" t="s">
         <v>56</v>
       </c>
       <c r="K156">
         <v>365</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>19</v>
       </c>
@@ -7367,7 +7834,7 @@
       <c r="C157" t="s">
         <v>25</v>
       </c>
-      <c r="D157" s="2" t="s">
+      <c r="D157" s="1" t="s">
         <v>162</v>
       </c>
       <c r="E157" t="s">
@@ -7382,14 +7849,17 @@
       <c r="H157" t="s">
         <v>41</v>
       </c>
-      <c r="I157" s="1" t="s">
+      <c r="I157" t="s">
         <v>56</v>
       </c>
       <c r="K157">
         <v>365</v>
       </c>
-    </row>
-    <row r="158" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>19</v>
       </c>
@@ -7399,7 +7869,7 @@
       <c r="C158" t="s">
         <v>25</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="D158" s="1" t="s">
         <v>119</v>
       </c>
       <c r="E158" t="s">
@@ -7414,7 +7884,7 @@
       <c r="H158" t="s">
         <v>41</v>
       </c>
-      <c r="I158" s="1" t="s">
+      <c r="I158" t="s">
         <v>2</v>
       </c>
       <c r="J158">
@@ -7423,8 +7893,11 @@
       <c r="N158">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>19</v>
       </c>
@@ -7434,7 +7907,7 @@
       <c r="C159" t="s">
         <v>25</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="D159" s="1" t="s">
         <v>120</v>
       </c>
       <c r="E159" t="s">
@@ -7449,7 +7922,7 @@
       <c r="H159" t="s">
         <v>41</v>
       </c>
-      <c r="I159" s="1" t="s">
+      <c r="I159" t="s">
         <v>2</v>
       </c>
       <c r="J159">
@@ -7458,8 +7931,11 @@
       <c r="N159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>19</v>
       </c>
@@ -7469,7 +7945,7 @@
       <c r="C160" t="s">
         <v>25</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="D160" s="1" t="s">
         <v>121</v>
       </c>
       <c r="E160" t="s">
@@ -7484,7 +7960,7 @@
       <c r="H160" t="s">
         <v>41</v>
       </c>
-      <c r="I160" s="1" t="s">
+      <c r="I160" t="s">
         <v>2</v>
       </c>
       <c r="J160">
@@ -7493,8 +7969,11 @@
       <c r="N160">
         <v>1</v>
       </c>
-    </row>
-    <row r="161" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>19</v>
       </c>
@@ -7504,7 +7983,7 @@
       <c r="C161" t="s">
         <v>25</v>
       </c>
-      <c r="D161" s="2" t="s">
+      <c r="D161" s="1" t="s">
         <v>122</v>
       </c>
       <c r="E161" t="s">
@@ -7519,7 +7998,7 @@
       <c r="H161" t="s">
         <v>41</v>
       </c>
-      <c r="I161" s="1" t="s">
+      <c r="I161" t="s">
         <v>2</v>
       </c>
       <c r="J161">
@@ -7528,8 +8007,11 @@
       <c r="N161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>19</v>
       </c>
@@ -7539,7 +8021,7 @@
       <c r="C162" t="s">
         <v>25</v>
       </c>
-      <c r="D162" s="2" t="s">
+      <c r="D162" s="1" t="s">
         <v>115</v>
       </c>
       <c r="E162" t="s">
@@ -7554,7 +8036,7 @@
       <c r="H162" t="s">
         <v>41</v>
       </c>
-      <c r="I162" s="1" t="s">
+      <c r="I162" t="s">
         <v>2</v>
       </c>
       <c r="J162">
@@ -7566,8 +8048,11 @@
       <c r="N162">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>19</v>
       </c>
@@ -7577,7 +8062,7 @@
       <c r="C163" t="s">
         <v>25</v>
       </c>
-      <c r="D163" s="2" t="s">
+      <c r="D163" s="1" t="s">
         <v>116</v>
       </c>
       <c r="E163" t="s">
@@ -7592,7 +8077,7 @@
       <c r="H163" t="s">
         <v>41</v>
       </c>
-      <c r="I163" s="1" t="s">
+      <c r="I163" t="s">
         <v>2</v>
       </c>
       <c r="J163">
@@ -7604,8 +8089,11 @@
       <c r="N163">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>19</v>
       </c>
@@ -7615,7 +8103,7 @@
       <c r="C164" t="s">
         <v>25</v>
       </c>
-      <c r="D164" s="2" t="s">
+      <c r="D164" s="1" t="s">
         <v>117</v>
       </c>
       <c r="E164" t="s">
@@ -7630,7 +8118,7 @@
       <c r="H164" t="s">
         <v>41</v>
       </c>
-      <c r="I164" s="1" t="s">
+      <c r="I164" t="s">
         <v>2</v>
       </c>
       <c r="J164">
@@ -7642,8 +8130,11 @@
       <c r="N164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>19</v>
       </c>
@@ -7653,7 +8144,7 @@
       <c r="C165" t="s">
         <v>25</v>
       </c>
-      <c r="D165" s="2" t="s">
+      <c r="D165" s="1" t="s">
         <v>118</v>
       </c>
       <c r="E165" t="s">
@@ -7668,7 +8159,7 @@
       <c r="H165" t="s">
         <v>41</v>
       </c>
-      <c r="I165" s="1" t="s">
+      <c r="I165" t="s">
         <v>2</v>
       </c>
       <c r="J165">
@@ -7680,8 +8171,11 @@
       <c r="N165">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>19</v>
       </c>
@@ -7691,7 +8185,7 @@
       <c r="C166" t="s">
         <v>25</v>
       </c>
-      <c r="D166" s="2" t="s">
+      <c r="D166" s="1" t="s">
         <v>111</v>
       </c>
       <c r="E166" t="s">
@@ -7706,14 +8200,17 @@
       <c r="H166" t="s">
         <v>41</v>
       </c>
-      <c r="I166" s="1" t="s">
+      <c r="I166" t="s">
         <v>56</v>
       </c>
       <c r="K166">
         <v>365</v>
       </c>
-    </row>
-    <row r="167" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>19</v>
       </c>
@@ -7723,7 +8220,7 @@
       <c r="C167" t="s">
         <v>25</v>
       </c>
-      <c r="D167" s="2" t="s">
+      <c r="D167" s="1" t="s">
         <v>112</v>
       </c>
       <c r="E167" t="s">
@@ -7738,14 +8235,17 @@
       <c r="H167" t="s">
         <v>41</v>
       </c>
-      <c r="I167" s="1" t="s">
+      <c r="I167" t="s">
         <v>56</v>
       </c>
       <c r="K167">
         <v>365</v>
       </c>
-    </row>
-    <row r="168" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>19</v>
       </c>
@@ -7755,7 +8255,7 @@
       <c r="C168" t="s">
         <v>25</v>
       </c>
-      <c r="D168" s="2" t="s">
+      <c r="D168" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E168" t="s">
@@ -7770,14 +8270,17 @@
       <c r="H168" t="s">
         <v>41</v>
       </c>
-      <c r="I168" s="1" t="s">
+      <c r="I168" t="s">
         <v>56</v>
       </c>
       <c r="K168">
         <v>365</v>
       </c>
-    </row>
-    <row r="169" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>19</v>
       </c>
@@ -7787,7 +8290,7 @@
       <c r="C169" t="s">
         <v>25</v>
       </c>
-      <c r="D169" s="2" t="s">
+      <c r="D169" s="1" t="s">
         <v>114</v>
       </c>
       <c r="E169" t="s">
@@ -7802,14 +8305,17 @@
       <c r="H169" t="s">
         <v>41</v>
       </c>
-      <c r="I169" s="1" t="s">
+      <c r="I169" t="s">
         <v>56</v>
       </c>
       <c r="K169">
         <v>365</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>19</v>
       </c>
@@ -7819,7 +8325,7 @@
       <c r="C170" t="s">
         <v>25</v>
       </c>
-      <c r="D170" s="2" t="s">
+      <c r="D170" s="1" t="s">
         <v>137</v>
       </c>
       <c r="E170" t="s">
@@ -7834,7 +8340,7 @@
       <c r="H170" t="s">
         <v>41</v>
       </c>
-      <c r="I170" s="1" t="s">
+      <c r="I170" t="s">
         <v>2</v>
       </c>
       <c r="J170">
@@ -7843,8 +8349,11 @@
       <c r="N170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>19</v>
       </c>
@@ -7854,7 +8363,7 @@
       <c r="C171" t="s">
         <v>25</v>
       </c>
-      <c r="D171" s="2" t="s">
+      <c r="D171" s="1" t="s">
         <v>138</v>
       </c>
       <c r="E171" t="s">
@@ -7869,7 +8378,7 @@
       <c r="H171" t="s">
         <v>41</v>
       </c>
-      <c r="I171" s="1" t="s">
+      <c r="I171" t="s">
         <v>2</v>
       </c>
       <c r="J171">
@@ -7878,8 +8387,11 @@
       <c r="N171">
         <v>1</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>19</v>
       </c>
@@ -7889,7 +8401,7 @@
       <c r="C172" t="s">
         <v>25</v>
       </c>
-      <c r="D172" s="2" t="s">
+      <c r="D172" s="1" t="s">
         <v>139</v>
       </c>
       <c r="E172" t="s">
@@ -7904,7 +8416,7 @@
       <c r="H172" t="s">
         <v>41</v>
       </c>
-      <c r="I172" s="1" t="s">
+      <c r="I172" t="s">
         <v>2</v>
       </c>
       <c r="J172">
@@ -7913,8 +8425,11 @@
       <c r="N172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>19</v>
       </c>
@@ -7924,7 +8439,7 @@
       <c r="C173" t="s">
         <v>25</v>
       </c>
-      <c r="D173" s="2" t="s">
+      <c r="D173" s="1" t="s">
         <v>140</v>
       </c>
       <c r="E173" t="s">
@@ -7939,7 +8454,7 @@
       <c r="H173" t="s">
         <v>41</v>
       </c>
-      <c r="I173" s="1" t="s">
+      <c r="I173" t="s">
         <v>2</v>
       </c>
       <c r="J173">
@@ -7948,8 +8463,11 @@
       <c r="N173">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>19</v>
       </c>
@@ -7959,7 +8477,7 @@
       <c r="C174" t="s">
         <v>25</v>
       </c>
-      <c r="D174" s="2" t="s">
+      <c r="D174" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E174" t="s">
@@ -7974,7 +8492,7 @@
       <c r="H174" t="s">
         <v>41</v>
       </c>
-      <c r="I174" s="1" t="s">
+      <c r="I174" t="s">
         <v>2</v>
       </c>
       <c r="J174">
@@ -7986,8 +8504,11 @@
       <c r="N174">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>19</v>
       </c>
@@ -7997,7 +8518,7 @@
       <c r="C175" t="s">
         <v>25</v>
       </c>
-      <c r="D175" s="2" t="s">
+      <c r="D175" s="1" t="s">
         <v>134</v>
       </c>
       <c r="E175" t="s">
@@ -8012,7 +8533,7 @@
       <c r="H175" t="s">
         <v>41</v>
       </c>
-      <c r="I175" s="1" t="s">
+      <c r="I175" t="s">
         <v>2</v>
       </c>
       <c r="J175">
@@ -8024,8 +8545,11 @@
       <c r="N175">
         <v>1</v>
       </c>
-    </row>
-    <row r="176" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>19</v>
       </c>
@@ -8035,7 +8559,7 @@
       <c r="C176" t="s">
         <v>25</v>
       </c>
-      <c r="D176" s="2" t="s">
+      <c r="D176" s="1" t="s">
         <v>135</v>
       </c>
       <c r="E176" t="s">
@@ -8050,7 +8574,7 @@
       <c r="H176" t="s">
         <v>41</v>
       </c>
-      <c r="I176" s="1" t="s">
+      <c r="I176" t="s">
         <v>2</v>
       </c>
       <c r="J176">
@@ -8062,8 +8586,11 @@
       <c r="N176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>19</v>
       </c>
@@ -8073,7 +8600,7 @@
       <c r="C177" t="s">
         <v>25</v>
       </c>
-      <c r="D177" s="2" t="s">
+      <c r="D177" s="1" t="s">
         <v>136</v>
       </c>
       <c r="E177" t="s">
@@ -8088,7 +8615,7 @@
       <c r="H177" t="s">
         <v>41</v>
       </c>
-      <c r="I177" s="1" t="s">
+      <c r="I177" t="s">
         <v>2</v>
       </c>
       <c r="J177">
@@ -8100,8 +8627,11 @@
       <c r="N177">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>19</v>
       </c>
@@ -8111,7 +8641,7 @@
       <c r="C178" t="s">
         <v>25</v>
       </c>
-      <c r="D178" s="2" t="s">
+      <c r="D178" s="1" t="s">
         <v>129</v>
       </c>
       <c r="E178" t="s">
@@ -8126,14 +8656,17 @@
       <c r="H178" t="s">
         <v>41</v>
       </c>
-      <c r="I178" s="1" t="s">
+      <c r="I178" t="s">
         <v>56</v>
       </c>
       <c r="K178">
         <v>365</v>
       </c>
-    </row>
-    <row r="179" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>19</v>
       </c>
@@ -8143,7 +8676,7 @@
       <c r="C179" t="s">
         <v>25</v>
       </c>
-      <c r="D179" s="2" t="s">
+      <c r="D179" s="1" t="s">
         <v>130</v>
       </c>
       <c r="E179" t="s">
@@ -8158,14 +8691,17 @@
       <c r="H179" t="s">
         <v>41</v>
       </c>
-      <c r="I179" s="1" t="s">
+      <c r="I179" t="s">
         <v>56</v>
       </c>
       <c r="K179">
         <v>365</v>
       </c>
-    </row>
-    <row r="180" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>19</v>
       </c>
@@ -8175,7 +8711,7 @@
       <c r="C180" t="s">
         <v>25</v>
       </c>
-      <c r="D180" s="2" t="s">
+      <c r="D180" s="1" t="s">
         <v>131</v>
       </c>
       <c r="E180" t="s">
@@ -8190,14 +8726,17 @@
       <c r="H180" t="s">
         <v>41</v>
       </c>
-      <c r="I180" s="1" t="s">
+      <c r="I180" t="s">
         <v>56</v>
       </c>
       <c r="K180">
         <v>365</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>19</v>
       </c>
@@ -8207,7 +8746,7 @@
       <c r="C181" t="s">
         <v>25</v>
       </c>
-      <c r="D181" s="2" t="s">
+      <c r="D181" s="1" t="s">
         <v>132</v>
       </c>
       <c r="E181" t="s">
@@ -8222,14 +8761,17 @@
       <c r="H181" t="s">
         <v>41</v>
       </c>
-      <c r="I181" s="1" t="s">
+      <c r="I181" t="s">
         <v>56</v>
       </c>
       <c r="K181">
         <v>365</v>
       </c>
-    </row>
-    <row r="182" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>19</v>
       </c>
@@ -8239,7 +8781,7 @@
       <c r="C182" t="s">
         <v>25</v>
       </c>
-      <c r="D182" s="2" t="s">
+      <c r="D182" s="1" t="s">
         <v>197</v>
       </c>
       <c r="E182" t="s">
@@ -8254,7 +8796,7 @@
       <c r="H182" t="s">
         <v>41</v>
       </c>
-      <c r="I182" s="1" t="s">
+      <c r="I182" t="s">
         <v>2</v>
       </c>
       <c r="J182">
@@ -8263,8 +8805,11 @@
       <c r="N182">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>19</v>
       </c>
@@ -8274,7 +8819,7 @@
       <c r="C183" t="s">
         <v>25</v>
       </c>
-      <c r="D183" s="2" t="s">
+      <c r="D183" s="1" t="s">
         <v>198</v>
       </c>
       <c r="E183" t="s">
@@ -8289,7 +8834,7 @@
       <c r="H183" t="s">
         <v>41</v>
       </c>
-      <c r="I183" s="1" t="s">
+      <c r="I183" t="s">
         <v>2</v>
       </c>
       <c r="J183">
@@ -8298,8 +8843,11 @@
       <c r="N183">
         <v>1</v>
       </c>
-    </row>
-    <row r="184" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>19</v>
       </c>
@@ -8309,7 +8857,7 @@
       <c r="C184" t="s">
         <v>25</v>
       </c>
-      <c r="D184" s="2" t="s">
+      <c r="D184" s="1" t="s">
         <v>199</v>
       </c>
       <c r="E184" t="s">
@@ -8324,7 +8872,7 @@
       <c r="H184" t="s">
         <v>41</v>
       </c>
-      <c r="I184" s="1" t="s">
+      <c r="I184" t="s">
         <v>2</v>
       </c>
       <c r="J184">
@@ -8333,8 +8881,11 @@
       <c r="N184">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>19</v>
       </c>
@@ -8344,7 +8895,7 @@
       <c r="C185" t="s">
         <v>25</v>
       </c>
-      <c r="D185" s="2" t="s">
+      <c r="D185" s="1" t="s">
         <v>200</v>
       </c>
       <c r="E185" t="s">
@@ -8359,7 +8910,7 @@
       <c r="H185" t="s">
         <v>41</v>
       </c>
-      <c r="I185" s="1" t="s">
+      <c r="I185" t="s">
         <v>2</v>
       </c>
       <c r="J185">
@@ -8368,8 +8919,11 @@
       <c r="N185">
         <v>1</v>
       </c>
-    </row>
-    <row r="186" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>19</v>
       </c>
@@ -8379,7 +8933,7 @@
       <c r="C186" t="s">
         <v>25</v>
       </c>
-      <c r="D186" s="2" t="s">
+      <c r="D186" s="1" t="s">
         <v>193</v>
       </c>
       <c r="E186" t="s">
@@ -8394,7 +8948,7 @@
       <c r="H186" t="s">
         <v>41</v>
       </c>
-      <c r="I186" s="1" t="s">
+      <c r="I186" t="s">
         <v>2</v>
       </c>
       <c r="J186">
@@ -8406,8 +8960,11 @@
       <c r="N186">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>19</v>
       </c>
@@ -8417,7 +8974,7 @@
       <c r="C187" t="s">
         <v>25</v>
       </c>
-      <c r="D187" s="2" t="s">
+      <c r="D187" s="1" t="s">
         <v>194</v>
       </c>
       <c r="E187" t="s">
@@ -8432,7 +8989,7 @@
       <c r="H187" t="s">
         <v>41</v>
       </c>
-      <c r="I187" s="1" t="s">
+      <c r="I187" t="s">
         <v>2</v>
       </c>
       <c r="J187">
@@ -8444,8 +9001,11 @@
       <c r="N187">
         <v>1</v>
       </c>
-    </row>
-    <row r="188" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>19</v>
       </c>
@@ -8455,7 +9015,7 @@
       <c r="C188" t="s">
         <v>25</v>
       </c>
-      <c r="D188" s="2" t="s">
+      <c r="D188" s="1" t="s">
         <v>195</v>
       </c>
       <c r="E188" t="s">
@@ -8470,7 +9030,7 @@
       <c r="H188" t="s">
         <v>41</v>
       </c>
-      <c r="I188" s="1" t="s">
+      <c r="I188" t="s">
         <v>2</v>
       </c>
       <c r="J188">
@@ -8482,8 +9042,11 @@
       <c r="N188">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>19</v>
       </c>
@@ -8493,7 +9056,7 @@
       <c r="C189" t="s">
         <v>25</v>
       </c>
-      <c r="D189" s="2" t="s">
+      <c r="D189" s="1" t="s">
         <v>196</v>
       </c>
       <c r="E189" t="s">
@@ -8508,7 +9071,7 @@
       <c r="H189" t="s">
         <v>41</v>
       </c>
-      <c r="I189" s="1" t="s">
+      <c r="I189" t="s">
         <v>2</v>
       </c>
       <c r="J189">
@@ -8520,8 +9083,11 @@
       <c r="N189">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>19</v>
       </c>
@@ -8531,7 +9097,7 @@
       <c r="C190" t="s">
         <v>25</v>
       </c>
-      <c r="D190" s="2" t="s">
+      <c r="D190" s="1" t="s">
         <v>189</v>
       </c>
       <c r="E190" t="s">
@@ -8546,14 +9112,17 @@
       <c r="H190" t="s">
         <v>41</v>
       </c>
-      <c r="I190" s="1" t="s">
+      <c r="I190" t="s">
         <v>56</v>
       </c>
       <c r="K190">
         <v>365</v>
       </c>
-    </row>
-    <row r="191" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>19</v>
       </c>
@@ -8563,7 +9132,7 @@
       <c r="C191" t="s">
         <v>25</v>
       </c>
-      <c r="D191" s="2" t="s">
+      <c r="D191" s="1" t="s">
         <v>190</v>
       </c>
       <c r="E191" t="s">
@@ -8578,14 +9147,17 @@
       <c r="H191" t="s">
         <v>41</v>
       </c>
-      <c r="I191" s="1" t="s">
+      <c r="I191" t="s">
         <v>56</v>
       </c>
       <c r="K191">
         <v>365</v>
       </c>
-    </row>
-    <row r="192" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>19</v>
       </c>
@@ -8595,7 +9167,7 @@
       <c r="C192" t="s">
         <v>25</v>
       </c>
-      <c r="D192" s="2" t="s">
+      <c r="D192" s="1" t="s">
         <v>191</v>
       </c>
       <c r="E192" t="s">
@@ -8610,14 +9182,17 @@
       <c r="H192" t="s">
         <v>41</v>
       </c>
-      <c r="I192" s="1" t="s">
+      <c r="I192" t="s">
         <v>56</v>
       </c>
       <c r="K192">
         <v>365</v>
       </c>
-    </row>
-    <row r="193" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>19</v>
       </c>
@@ -8627,7 +9202,7 @@
       <c r="C193" t="s">
         <v>25</v>
       </c>
-      <c r="D193" s="2" t="s">
+      <c r="D193" s="1" t="s">
         <v>192</v>
       </c>
       <c r="E193" t="s">
@@ -8642,14 +9217,17 @@
       <c r="H193" t="s">
         <v>41</v>
       </c>
-      <c r="I193" s="1" t="s">
+      <c r="I193" t="s">
         <v>56</v>
       </c>
       <c r="K193">
         <v>365</v>
       </c>
-    </row>
-    <row r="194" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>19</v>
       </c>
@@ -8659,7 +9237,7 @@
       <c r="C194" t="s">
         <v>25</v>
       </c>
-      <c r="D194" s="2" t="s">
+      <c r="D194" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E194" t="s">
@@ -8674,7 +9252,7 @@
       <c r="H194" t="s">
         <v>41</v>
       </c>
-      <c r="I194" s="1" t="s">
+      <c r="I194" t="s">
         <v>2</v>
       </c>
       <c r="J194">
@@ -8683,8 +9261,11 @@
       <c r="N194">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>19</v>
       </c>
@@ -8694,7 +9275,7 @@
       <c r="C195" t="s">
         <v>25</v>
       </c>
-      <c r="D195" s="2" t="s">
+      <c r="D195" s="1" t="s">
         <v>210</v>
       </c>
       <c r="E195" t="s">
@@ -8709,7 +9290,7 @@
       <c r="H195" t="s">
         <v>41</v>
       </c>
-      <c r="I195" s="1" t="s">
+      <c r="I195" t="s">
         <v>2</v>
       </c>
       <c r="J195">
@@ -8718,8 +9299,11 @@
       <c r="N195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>19</v>
       </c>
@@ -8729,7 +9313,7 @@
       <c r="C196" t="s">
         <v>25</v>
       </c>
-      <c r="D196" s="2" t="s">
+      <c r="D196" s="1" t="s">
         <v>211</v>
       </c>
       <c r="E196" t="s">
@@ -8744,7 +9328,7 @@
       <c r="H196" t="s">
         <v>41</v>
       </c>
-      <c r="I196" s="1" t="s">
+      <c r="I196" t="s">
         <v>2</v>
       </c>
       <c r="J196">
@@ -8753,8 +9337,11 @@
       <c r="N196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>19</v>
       </c>
@@ -8764,7 +9351,7 @@
       <c r="C197" t="s">
         <v>25</v>
       </c>
-      <c r="D197" s="2" t="s">
+      <c r="D197" s="1" t="s">
         <v>212</v>
       </c>
       <c r="E197" t="s">
@@ -8779,7 +9366,7 @@
       <c r="H197" t="s">
         <v>41</v>
       </c>
-      <c r="I197" s="1" t="s">
+      <c r="I197" t="s">
         <v>2</v>
       </c>
       <c r="J197">
@@ -8788,8 +9375,11 @@
       <c r="N197">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>19</v>
       </c>
@@ -8799,7 +9389,7 @@
       <c r="C198" t="s">
         <v>25</v>
       </c>
-      <c r="D198" s="2" t="s">
+      <c r="D198" s="1" t="s">
         <v>205</v>
       </c>
       <c r="E198" t="s">
@@ -8814,7 +9404,7 @@
       <c r="H198" t="s">
         <v>41</v>
       </c>
-      <c r="I198" s="1" t="s">
+      <c r="I198" t="s">
         <v>2</v>
       </c>
       <c r="J198">
@@ -8826,8 +9416,11 @@
       <c r="N198">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>19</v>
       </c>
@@ -8837,7 +9430,7 @@
       <c r="C199" t="s">
         <v>25</v>
       </c>
-      <c r="D199" s="2" t="s">
+      <c r="D199" s="1" t="s">
         <v>206</v>
       </c>
       <c r="E199" t="s">
@@ -8852,7 +9445,7 @@
       <c r="H199" t="s">
         <v>41</v>
       </c>
-      <c r="I199" s="1" t="s">
+      <c r="I199" t="s">
         <v>2</v>
       </c>
       <c r="J199">
@@ -8864,8 +9457,11 @@
       <c r="N199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>19</v>
       </c>
@@ -8875,7 +9471,7 @@
       <c r="C200" t="s">
         <v>25</v>
       </c>
-      <c r="D200" s="2" t="s">
+      <c r="D200" s="1" t="s">
         <v>207</v>
       </c>
       <c r="E200" t="s">
@@ -8890,7 +9486,7 @@
       <c r="H200" t="s">
         <v>41</v>
       </c>
-      <c r="I200" s="1" t="s">
+      <c r="I200" t="s">
         <v>2</v>
       </c>
       <c r="J200">
@@ -8902,8 +9498,11 @@
       <c r="N200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>19</v>
       </c>
@@ -8913,7 +9512,7 @@
       <c r="C201" t="s">
         <v>25</v>
       </c>
-      <c r="D201" s="2" t="s">
+      <c r="D201" s="1" t="s">
         <v>208</v>
       </c>
       <c r="E201" t="s">
@@ -8928,7 +9527,7 @@
       <c r="H201" t="s">
         <v>41</v>
       </c>
-      <c r="I201" s="1" t="s">
+      <c r="I201" t="s">
         <v>2</v>
       </c>
       <c r="J201">
@@ -8940,8 +9539,11 @@
       <c r="N201">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>19</v>
       </c>
@@ -8951,7 +9553,7 @@
       <c r="C202" t="s">
         <v>25</v>
       </c>
-      <c r="D202" s="2" t="s">
+      <c r="D202" s="1" t="s">
         <v>201</v>
       </c>
       <c r="E202" t="s">
@@ -8966,14 +9568,17 @@
       <c r="H202" t="s">
         <v>41</v>
       </c>
-      <c r="I202" s="1" t="s">
+      <c r="I202" t="s">
         <v>56</v>
       </c>
       <c r="K202">
         <v>365</v>
       </c>
-    </row>
-    <row r="203" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>19</v>
       </c>
@@ -8983,7 +9588,7 @@
       <c r="C203" t="s">
         <v>25</v>
       </c>
-      <c r="D203" s="2" t="s">
+      <c r="D203" s="1" t="s">
         <v>202</v>
       </c>
       <c r="E203" t="s">
@@ -8998,14 +9603,17 @@
       <c r="H203" t="s">
         <v>41</v>
       </c>
-      <c r="I203" s="1" t="s">
+      <c r="I203" t="s">
         <v>56</v>
       </c>
       <c r="K203">
         <v>365</v>
       </c>
-    </row>
-    <row r="204" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>19</v>
       </c>
@@ -9015,7 +9623,7 @@
       <c r="C204" t="s">
         <v>25</v>
       </c>
-      <c r="D204" s="2" t="s">
+      <c r="D204" s="1" t="s">
         <v>203</v>
       </c>
       <c r="E204" t="s">
@@ -9030,14 +9638,17 @@
       <c r="H204" t="s">
         <v>41</v>
       </c>
-      <c r="I204" s="1" t="s">
+      <c r="I204" t="s">
         <v>56</v>
       </c>
       <c r="K204">
         <v>365</v>
       </c>
-    </row>
-    <row r="205" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>19</v>
       </c>
@@ -9047,7 +9658,7 @@
       <c r="C205" t="s">
         <v>25</v>
       </c>
-      <c r="D205" s="2" t="s">
+      <c r="D205" s="1" t="s">
         <v>204</v>
       </c>
       <c r="E205" t="s">
@@ -9062,14 +9673,17 @@
       <c r="H205" t="s">
         <v>41</v>
       </c>
-      <c r="I205" s="1" t="s">
+      <c r="I205" t="s">
         <v>56</v>
       </c>
       <c r="K205">
         <v>365</v>
       </c>
-    </row>
-    <row r="206" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>19</v>
       </c>
@@ -9079,7 +9693,7 @@
       <c r="C206" t="s">
         <v>25</v>
       </c>
-      <c r="D206" s="2" t="s">
+      <c r="D206" s="1" t="s">
         <v>227</v>
       </c>
       <c r="E206" t="s">
@@ -9094,7 +9708,7 @@
       <c r="H206" t="s">
         <v>41</v>
       </c>
-      <c r="I206" s="1" t="s">
+      <c r="I206" t="s">
         <v>2</v>
       </c>
       <c r="J206">
@@ -9103,8 +9717,11 @@
       <c r="N206">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>19</v>
       </c>
@@ -9114,7 +9731,7 @@
       <c r="C207" t="s">
         <v>25</v>
       </c>
-      <c r="D207" s="2" t="s">
+      <c r="D207" s="1" t="s">
         <v>228</v>
       </c>
       <c r="E207" t="s">
@@ -9129,7 +9746,7 @@
       <c r="H207" t="s">
         <v>41</v>
       </c>
-      <c r="I207" s="1" t="s">
+      <c r="I207" t="s">
         <v>2</v>
       </c>
       <c r="J207">
@@ -9138,8 +9755,11 @@
       <c r="N207">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>19</v>
       </c>
@@ -9149,7 +9769,7 @@
       <c r="C208" t="s">
         <v>25</v>
       </c>
-      <c r="D208" s="2" t="s">
+      <c r="D208" s="1" t="s">
         <v>229</v>
       </c>
       <c r="E208" t="s">
@@ -9164,7 +9784,7 @@
       <c r="H208" t="s">
         <v>41</v>
       </c>
-      <c r="I208" s="1" t="s">
+      <c r="I208" t="s">
         <v>2</v>
       </c>
       <c r="J208">
@@ -9173,8 +9793,11 @@
       <c r="N208">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>19</v>
       </c>
@@ -9184,7 +9807,7 @@
       <c r="C209" t="s">
         <v>25</v>
       </c>
-      <c r="D209" s="2" t="s">
+      <c r="D209" s="1" t="s">
         <v>230</v>
       </c>
       <c r="E209" t="s">
@@ -9199,7 +9822,7 @@
       <c r="H209" t="s">
         <v>41</v>
       </c>
-      <c r="I209" s="1" t="s">
+      <c r="I209" t="s">
         <v>2</v>
       </c>
       <c r="J209">
@@ -9208,8 +9831,11 @@
       <c r="N209">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>19</v>
       </c>
@@ -9219,7 +9845,7 @@
       <c r="C210" t="s">
         <v>25</v>
       </c>
-      <c r="D210" s="2" t="s">
+      <c r="D210" s="1" t="s">
         <v>223</v>
       </c>
       <c r="E210" t="s">
@@ -9234,7 +9860,7 @@
       <c r="H210" t="s">
         <v>41</v>
       </c>
-      <c r="I210" s="1" t="s">
+      <c r="I210" t="s">
         <v>2</v>
       </c>
       <c r="J210">
@@ -9246,8 +9872,11 @@
       <c r="N210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>19</v>
       </c>
@@ -9257,7 +9886,7 @@
       <c r="C211" t="s">
         <v>25</v>
       </c>
-      <c r="D211" s="2" t="s">
+      <c r="D211" s="1" t="s">
         <v>224</v>
       </c>
       <c r="E211" t="s">
@@ -9272,7 +9901,7 @@
       <c r="H211" t="s">
         <v>41</v>
       </c>
-      <c r="I211" s="1" t="s">
+      <c r="I211" t="s">
         <v>2</v>
       </c>
       <c r="J211">
@@ -9284,8 +9913,11 @@
       <c r="N211">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>19</v>
       </c>
@@ -9295,7 +9927,7 @@
       <c r="C212" t="s">
         <v>25</v>
       </c>
-      <c r="D212" s="2" t="s">
+      <c r="D212" s="1" t="s">
         <v>225</v>
       </c>
       <c r="E212" t="s">
@@ -9310,7 +9942,7 @@
       <c r="H212" t="s">
         <v>41</v>
       </c>
-      <c r="I212" s="1" t="s">
+      <c r="I212" t="s">
         <v>2</v>
       </c>
       <c r="J212">
@@ -9322,8 +9954,11 @@
       <c r="N212">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>19</v>
       </c>
@@ -9333,7 +9968,7 @@
       <c r="C213" t="s">
         <v>25</v>
       </c>
-      <c r="D213" s="2" t="s">
+      <c r="D213" s="1" t="s">
         <v>226</v>
       </c>
       <c r="E213" t="s">
@@ -9348,7 +9983,7 @@
       <c r="H213" t="s">
         <v>41</v>
       </c>
-      <c r="I213" s="1" t="s">
+      <c r="I213" t="s">
         <v>2</v>
       </c>
       <c r="J213">
@@ -9360,8 +9995,11 @@
       <c r="N213">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>19</v>
       </c>
@@ -9371,7 +10009,7 @@
       <c r="C214" t="s">
         <v>25</v>
       </c>
-      <c r="D214" s="2" t="s">
+      <c r="D214" s="1" t="s">
         <v>219</v>
       </c>
       <c r="E214" t="s">
@@ -9386,14 +10024,17 @@
       <c r="H214" t="s">
         <v>41</v>
       </c>
-      <c r="I214" s="1" t="s">
+      <c r="I214" t="s">
         <v>56</v>
       </c>
       <c r="K214">
         <v>365</v>
       </c>
-    </row>
-    <row r="215" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>19</v>
       </c>
@@ -9403,7 +10044,7 @@
       <c r="C215" t="s">
         <v>25</v>
       </c>
-      <c r="D215" s="2" t="s">
+      <c r="D215" s="1" t="s">
         <v>220</v>
       </c>
       <c r="E215" t="s">
@@ -9418,14 +10059,17 @@
       <c r="H215" t="s">
         <v>41</v>
       </c>
-      <c r="I215" s="1" t="s">
+      <c r="I215" t="s">
         <v>56</v>
       </c>
       <c r="K215">
         <v>365</v>
       </c>
-    </row>
-    <row r="216" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O215">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>19</v>
       </c>
@@ -9435,7 +10079,7 @@
       <c r="C216" t="s">
         <v>25</v>
       </c>
-      <c r="D216" s="2" t="s">
+      <c r="D216" s="1" t="s">
         <v>221</v>
       </c>
       <c r="E216" t="s">
@@ -9450,14 +10094,17 @@
       <c r="H216" t="s">
         <v>41</v>
       </c>
-      <c r="I216" s="1" t="s">
+      <c r="I216" t="s">
         <v>56</v>
       </c>
       <c r="K216">
         <v>365</v>
       </c>
-    </row>
-    <row r="217" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>19</v>
       </c>
@@ -9467,7 +10114,7 @@
       <c r="C217" t="s">
         <v>25</v>
       </c>
-      <c r="D217" s="2" t="s">
+      <c r="D217" s="1" t="s">
         <v>222</v>
       </c>
       <c r="E217" t="s">
@@ -9482,14 +10129,17 @@
       <c r="H217" t="s">
         <v>41</v>
       </c>
-      <c r="I217" s="1" t="s">
+      <c r="I217" t="s">
         <v>56</v>
       </c>
       <c r="K217">
         <v>365</v>
       </c>
-    </row>
-    <row r="218" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>19</v>
       </c>
@@ -9499,7 +10149,7 @@
       <c r="C218" t="s">
         <v>25</v>
       </c>
-      <c r="D218" s="2" t="s">
+      <c r="D218" s="1" t="s">
         <v>92</v>
       </c>
       <c r="E218" t="s">
@@ -9514,7 +10164,7 @@
       <c r="H218" t="s">
         <v>41</v>
       </c>
-      <c r="I218" s="1" t="s">
+      <c r="I218" t="s">
         <v>2</v>
       </c>
       <c r="J218">
@@ -9523,8 +10173,11 @@
       <c r="N218">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O218">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>19</v>
       </c>
@@ -9534,7 +10187,7 @@
       <c r="C219" t="s">
         <v>25</v>
       </c>
-      <c r="D219" s="2" t="s">
+      <c r="D219" s="1" t="s">
         <v>93</v>
       </c>
       <c r="E219" t="s">
@@ -9549,7 +10202,7 @@
       <c r="H219" t="s">
         <v>41</v>
       </c>
-      <c r="I219" s="1" t="s">
+      <c r="I219" t="s">
         <v>2</v>
       </c>
       <c r="J219">
@@ -9558,8 +10211,11 @@
       <c r="N219">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>19</v>
       </c>
@@ -9569,7 +10225,7 @@
       <c r="C220" t="s">
         <v>25</v>
       </c>
-      <c r="D220" s="2" t="s">
+      <c r="D220" s="1" t="s">
         <v>94</v>
       </c>
       <c r="E220" t="s">
@@ -9584,7 +10240,7 @@
       <c r="H220" t="s">
         <v>41</v>
       </c>
-      <c r="I220" s="1" t="s">
+      <c r="I220" t="s">
         <v>2</v>
       </c>
       <c r="J220">
@@ -9593,8 +10249,11 @@
       <c r="N220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O220">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>19</v>
       </c>
@@ -9604,7 +10263,7 @@
       <c r="C221" t="s">
         <v>25</v>
       </c>
-      <c r="D221" s="2" t="s">
+      <c r="D221" s="1" t="s">
         <v>95</v>
       </c>
       <c r="E221" t="s">
@@ -9619,7 +10278,7 @@
       <c r="H221" t="s">
         <v>41</v>
       </c>
-      <c r="I221" s="1" t="s">
+      <c r="I221" t="s">
         <v>2</v>
       </c>
       <c r="J221">
@@ -9628,8 +10287,11 @@
       <c r="N221">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>19</v>
       </c>
@@ -9639,7 +10301,7 @@
       <c r="C222" t="s">
         <v>25</v>
       </c>
-      <c r="D222" s="2" t="s">
+      <c r="D222" s="1" t="s">
         <v>88</v>
       </c>
       <c r="E222" t="s">
@@ -9654,7 +10316,7 @@
       <c r="H222" t="s">
         <v>41</v>
       </c>
-      <c r="I222" s="1" t="s">
+      <c r="I222" t="s">
         <v>2</v>
       </c>
       <c r="J222">
@@ -9666,8 +10328,11 @@
       <c r="N222">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>19</v>
       </c>
@@ -9677,7 +10342,7 @@
       <c r="C223" t="s">
         <v>25</v>
       </c>
-      <c r="D223" s="2" t="s">
+      <c r="D223" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E223" t="s">
@@ -9692,7 +10357,7 @@
       <c r="H223" t="s">
         <v>41</v>
       </c>
-      <c r="I223" s="1" t="s">
+      <c r="I223" t="s">
         <v>2</v>
       </c>
       <c r="J223">
@@ -9704,8 +10369,11 @@
       <c r="N223">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>19</v>
       </c>
@@ -9715,7 +10383,7 @@
       <c r="C224" t="s">
         <v>25</v>
       </c>
-      <c r="D224" s="2" t="s">
+      <c r="D224" s="1" t="s">
         <v>90</v>
       </c>
       <c r="E224" t="s">
@@ -9730,7 +10398,7 @@
       <c r="H224" t="s">
         <v>41</v>
       </c>
-      <c r="I224" s="1" t="s">
+      <c r="I224" t="s">
         <v>2</v>
       </c>
       <c r="J224">
@@ -9742,8 +10410,11 @@
       <c r="N224">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O224">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>19</v>
       </c>
@@ -9753,7 +10424,7 @@
       <c r="C225" t="s">
         <v>25</v>
       </c>
-      <c r="D225" s="2" t="s">
+      <c r="D225" s="1" t="s">
         <v>91</v>
       </c>
       <c r="E225" t="s">
@@ -9768,7 +10439,7 @@
       <c r="H225" t="s">
         <v>41</v>
       </c>
-      <c r="I225" s="1" t="s">
+      <c r="I225" t="s">
         <v>2</v>
       </c>
       <c r="J225">
@@ -9780,8 +10451,11 @@
       <c r="N225">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>19</v>
       </c>
@@ -9791,7 +10465,7 @@
       <c r="C226" t="s">
         <v>25</v>
       </c>
-      <c r="D226" s="2" t="s">
+      <c r="D226" s="1" t="s">
         <v>84</v>
       </c>
       <c r="E226" t="s">
@@ -9806,15 +10480,17 @@
       <c r="H226" t="s">
         <v>41</v>
       </c>
-      <c r="I226" s="1" t="s">
+      <c r="I226" t="s">
         <v>56</v>
       </c>
       <c r="K226">
         <v>365</v>
       </c>
-      <c r="M226" s="1"/>
-    </row>
-    <row r="227" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>19</v>
       </c>
@@ -9824,7 +10500,7 @@
       <c r="C227" t="s">
         <v>25</v>
       </c>
-      <c r="D227" s="2" t="s">
+      <c r="D227" s="1" t="s">
         <v>85</v>
       </c>
       <c r="E227" t="s">
@@ -9839,14 +10515,17 @@
       <c r="H227" t="s">
         <v>41</v>
       </c>
-      <c r="I227" s="1" t="s">
+      <c r="I227" t="s">
         <v>56</v>
       </c>
       <c r="K227">
         <v>365</v>
       </c>
-    </row>
-    <row r="228" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O227">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>19</v>
       </c>
@@ -9856,7 +10535,7 @@
       <c r="C228" t="s">
         <v>25</v>
       </c>
-      <c r="D228" s="2" t="s">
+      <c r="D228" s="1" t="s">
         <v>86</v>
       </c>
       <c r="E228" t="s">
@@ -9871,15 +10550,17 @@
       <c r="H228" t="s">
         <v>41</v>
       </c>
-      <c r="I228" s="1" t="s">
+      <c r="I228" t="s">
         <v>56</v>
       </c>
       <c r="K228">
         <v>365</v>
       </c>
-      <c r="M228" s="1"/>
-    </row>
-    <row r="229" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O228">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>19</v>
       </c>
@@ -9889,7 +10570,7 @@
       <c r="C229" t="s">
         <v>25</v>
       </c>
-      <c r="D229" s="2" t="s">
+      <c r="D229" s="1" t="s">
         <v>87</v>
       </c>
       <c r="E229" t="s">
@@ -9904,11 +10585,14 @@
       <c r="H229" t="s">
         <v>41</v>
       </c>
-      <c r="I229" s="1" t="s">
+      <c r="I229" t="s">
         <v>56</v>
       </c>
       <c r="K229">
         <v>365</v>
+      </c>
+      <c r="O229">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9918,10 +10602,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9929,54 +10613,57 @@
     <col min="3" max="3" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" t="s">
+        <v>340</v>
+      </c>
+      <c r="P1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -9992,11 +10679,11 @@
       <c r="E2" t="s">
         <v>32</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -10012,11 +10699,11 @@
       <c r="E3" t="s">
         <v>32</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -10032,11 +10719,11 @@
       <c r="E4" t="s">
         <v>32</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -10052,7 +10739,7 @@
       <c r="E5" t="s">
         <v>32</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -10063,10 +10750,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10074,54 +10761,57 @@
     <col min="3" max="3" width="41.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" t="s">
+        <v>340</v>
+      </c>
+      <c r="P1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -10137,11 +10827,11 @@
       <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -10157,11 +10847,11 @@
       <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -10177,11 +10867,11 @@
       <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -10197,11 +10887,11 @@
       <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -10217,11 +10907,11 @@
       <c r="E6" t="s">
         <v>26</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -10237,11 +10927,11 @@
       <c r="E7" t="s">
         <v>26</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -10257,11 +10947,11 @@
       <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -10277,7 +10967,7 @@
       <c r="E9" t="s">
         <v>26</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -10288,10 +10978,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10299,50 +10989,53 @@
     <col min="3" max="3" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" t="s">
+        <v>340</v>
+      </c>
+      <c r="P1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10353,58 +11046,61 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A85E1B4-6E48-9643-B927-0FB77A3D9FCF}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" t="s">
+        <v>340</v>
+      </c>
+      <c r="P1" t="s">
         <v>17</v>
       </c>
     </row>
@@ -10417,7 +11113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26AC50D4-13B1-DC41-A31A-6E90F646F0AC}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
